--- a/Projects/RVM/src/rvm.xlsx
+++ b/Projects/RVM/src/rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Development\QuickBasic64\Projects\RVM\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5FB565-D469-4E55-AF6E-566861A62EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B0F49-B1F1-46B3-A449-3A7C523A48A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="143">
   <si>
     <t>Opcode</t>
   </si>
@@ -449,6 +449,24 @@
   </si>
   <si>
     <t>Function (currently unchecked)</t>
+  </si>
+  <si>
+    <t>Free memory for user program.</t>
+  </si>
+  <si>
+    <t>$1000</t>
+  </si>
+  <si>
+    <t>$0FFF</t>
+  </si>
+  <si>
+    <t>$8000</t>
+  </si>
+  <si>
+    <t>$7FFF</t>
+  </si>
+  <si>
+    <t>(reserved)</t>
   </si>
 </sst>
 </file>
@@ -550,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -614,6 +632,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8645,7 +8666,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8679,82 +8700,82 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="12" t="s">
         <v>90</v>
       </c>
@@ -8786,21 +8807,33 @@
         <v>116</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -8809,15 +8842,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projects/RVM/src/rvm.xlsx
+++ b/Projects/RVM/src/rvm.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Development\QuickBasic64\Projects\RVM\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B0F49-B1F1-46B3-A449-3A7C523A48A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9C20A-E96C-41AD-9AF6-B8D8EF1C8143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opcodes" sheetId="1" r:id="rId1"/>
     <sheet name="Memory Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opcodes!$A$1:$O$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opcodes!$A$1:$P$257</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="249">
   <si>
     <t>Opcode</t>
   </si>
@@ -229,12 +229,6 @@
     <t>Jump to relative address.</t>
   </si>
   <si>
-    <t>Currently is equal to halting the CPU.</t>
-  </si>
-  <si>
-    <t>Currently is equal to stopping the CPU.</t>
-  </si>
-  <si>
     <t>Destination is relative to the address after the jump instruction.</t>
   </si>
   <si>
@@ -406,12 +400,6 @@
     <t>BRK</t>
   </si>
   <si>
-    <t>Interrupt program..</t>
-  </si>
-  <si>
-    <t>Internally executes a short NOP without memory checking.</t>
-  </si>
-  <si>
     <t>Stack page (default).</t>
   </si>
   <si>
@@ -421,12 +409,6 @@
     <t>$0022</t>
   </si>
   <si>
-    <t>Pointer to stack page; will be multiplied by $0100.</t>
-  </si>
-  <si>
-    <t>Pointer to keyboard buffer page; will be multiplied by $0100.</t>
-  </si>
-  <si>
     <t>Next offset to be read from keyboard buffer.</t>
   </si>
   <si>
@@ -467,13 +449,349 @@
   </si>
   <si>
     <t>(reserved)</t>
+  </si>
+  <si>
+    <t>Set reserved flag.</t>
+  </si>
+  <si>
+    <t>Clear reserved flag.</t>
+  </si>
+  <si>
+    <t>BEQ #hh</t>
+  </si>
+  <si>
+    <t>Branch on ZF = 0.</t>
+  </si>
+  <si>
+    <t>Branch on ZF = 1.</t>
+  </si>
+  <si>
+    <t>BNE #hh</t>
+  </si>
+  <si>
+    <t>BPL #hh</t>
+  </si>
+  <si>
+    <t>Branch on SF = 0.</t>
+  </si>
+  <si>
+    <t>BMI #hh</t>
+  </si>
+  <si>
+    <t>Branch on CF = 1.</t>
+  </si>
+  <si>
+    <t>Branch on SF = 1.</t>
+  </si>
+  <si>
+    <t>Branch on CF = 0.</t>
+  </si>
+  <si>
+    <t>BCS #hh</t>
+  </si>
+  <si>
+    <t>BCC #hh</t>
+  </si>
+  <si>
+    <t>BVC #hh</t>
+  </si>
+  <si>
+    <t>Branch on OF = 0.</t>
+  </si>
+  <si>
+    <t>Branch on OF = 1.</t>
+  </si>
+  <si>
+    <t>BVS #hh</t>
+  </si>
+  <si>
+    <t>Branch on reserved flag = 1.</t>
+  </si>
+  <si>
+    <t>Branch on reserved flag = 0.</t>
+  </si>
+  <si>
+    <t>AND #hh</t>
+  </si>
+  <si>
+    <t>AND $hhhh</t>
+  </si>
+  <si>
+    <t>BIT #hh</t>
+  </si>
+  <si>
+    <t>BIT $hhhh</t>
+  </si>
+  <si>
+    <t>Compare accu bitwise with value.</t>
+  </si>
+  <si>
+    <t>Compare accu bitwise with address.</t>
+  </si>
+  <si>
+    <t>ORA #hh</t>
+  </si>
+  <si>
+    <t>ORA $hhhh</t>
+  </si>
+  <si>
+    <t>EOR #hh</t>
+  </si>
+  <si>
+    <t>EOR $hhhh</t>
+  </si>
+  <si>
+    <t>Calculate accu and value (bitwise).</t>
+  </si>
+  <si>
+    <t>Calculate accu and address (bitwise).</t>
+  </si>
+  <si>
+    <t>Calculate accu or value (bitwise).</t>
+  </si>
+  <si>
+    <t>Calculate accu or address (bitwise).</t>
+  </si>
+  <si>
+    <t>Calculate accu exclusive-or value (bitwise).</t>
+  </si>
+  <si>
+    <t>Calculate accu exclusive-or address (bitwise).</t>
+  </si>
+  <si>
+    <t>CMP #hh</t>
+  </si>
+  <si>
+    <t>CMP $hhhh</t>
+  </si>
+  <si>
+    <t>Compare accu with value.</t>
+  </si>
+  <si>
+    <t>Compare accu with address.</t>
+  </si>
+  <si>
+    <t>Add value to accu.</t>
+  </si>
+  <si>
+    <t>Add address to accu.</t>
+  </si>
+  <si>
+    <t>Add value and carry bit to accu.</t>
+  </si>
+  <si>
+    <t>Add address and carry bit to accu.</t>
+  </si>
+  <si>
+    <t>SUB #hh</t>
+  </si>
+  <si>
+    <t>SUB $hhhh</t>
+  </si>
+  <si>
+    <t>SBC $hhhh</t>
+  </si>
+  <si>
+    <t>SBC #hh</t>
+  </si>
+  <si>
+    <t>ADC $hhhh</t>
+  </si>
+  <si>
+    <t>ADC #hh</t>
+  </si>
+  <si>
+    <t>ADD $hhhh</t>
+  </si>
+  <si>
+    <t>ADD #hh</t>
+  </si>
+  <si>
+    <t>Subtract value from accu.</t>
+  </si>
+  <si>
+    <t>Subtract address from accu.</t>
+  </si>
+  <si>
+    <t>Subtract value and carry bit from accu.</t>
+  </si>
+  <si>
+    <t>Subtract address and carry bit from accu.</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>DEY</t>
+  </si>
+  <si>
+    <t>INX</t>
+  </si>
+  <si>
+    <t>INY</t>
+  </si>
+  <si>
+    <t>Increment index #1.</t>
+  </si>
+  <si>
+    <t>Decrement index #1.</t>
+  </si>
+  <si>
+    <t>Decrement index #2.</t>
+  </si>
+  <si>
+    <t>Increment index #2.</t>
+  </si>
+  <si>
+    <t>Decrement accu.</t>
+  </si>
+  <si>
+    <t>Decrement stack pointer.</t>
+  </si>
+  <si>
+    <t>Increment accu.</t>
+  </si>
+  <si>
+    <t>Increment stack pointer.</t>
+  </si>
+  <si>
+    <t>DEC $hhhh</t>
+  </si>
+  <si>
+    <t>INC $hhhh</t>
+  </si>
+  <si>
+    <t>Decrement address.</t>
+  </si>
+  <si>
+    <t>Increment address.</t>
+  </si>
+  <si>
+    <t>SHL</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Shift accu logically to the right.</t>
+  </si>
+  <si>
+    <t>Shift accu logically to the left.</t>
+  </si>
+  <si>
+    <t>Shift accu arithmetically to the left.</t>
+  </si>
+  <si>
+    <t>Shift accu arithmetically to the right.</t>
+  </si>
+  <si>
+    <t>Can be considerd a division by 2 for unsigned values.</t>
+  </si>
+  <si>
+    <t>Can be considerd a multiplication with 2 for unsigned values.</t>
+  </si>
+  <si>
+    <t>Can be considerd a division by 2 for signed values.</t>
+  </si>
+  <si>
+    <t>Can be considerd a multiplication with 2 for signed values.</t>
+  </si>
+  <si>
+    <t>SHL $hhhh</t>
+  </si>
+  <si>
+    <t>SAR $hhhh</t>
+  </si>
+  <si>
+    <t>Shift address logically to the right.</t>
+  </si>
+  <si>
+    <t>Shift address logically to the left.</t>
+  </si>
+  <si>
+    <t>Shift address arithmetically to the right.</t>
+  </si>
+  <si>
+    <t>Shift address arithmetically to the left.</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Rotate accu and carry bit to the right.</t>
+  </si>
+  <si>
+    <t>Rotate accu and carry bit to the left.</t>
+  </si>
+  <si>
+    <t>ROR $hhhh</t>
+  </si>
+  <si>
+    <t>ROL $hhhh</t>
+  </si>
+  <si>
+    <t>Rotate address and carry bit to the right.</t>
+  </si>
+  <si>
+    <t>Rotate address and carry bit to the left.</t>
+  </si>
+  <si>
+    <t>ASL</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LSR $hhhh</t>
+  </si>
+  <si>
+    <t>ASL $hhhh</t>
+  </si>
+  <si>
+    <t>Used to e.g. react to user inputs.</t>
+  </si>
+  <si>
+    <t>Pointer to stack page; minimum value $01; will be multiplied by $0100.</t>
+  </si>
+  <si>
+    <t>Pointer to keyboard buffer page; minimum value $01; will be multiplied by $0100.</t>
+  </si>
+  <si>
+    <t>Routine to read next key from keyboard buffer.</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Interrupt programme.</t>
+  </si>
+  <si>
+    <t>Transfer stack pointer into accu.</t>
+  </si>
+  <si>
+    <t>Transfer accu into stack pointer.</t>
+  </si>
+  <si>
+    <t>Transfer accu into accu.</t>
+  </si>
+  <si>
+    <t>Currently the same as halting the CPU..</t>
+  </si>
+  <si>
+    <t>Currently the same as stopping the CPU..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +832,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +865,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -564,11 +895,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,6 +981,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,34 +1289,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="47.7109375" style="3" hidden="1"/>
+    <col min="8" max="9" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="35.7109375" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -967,35 +1335,35 @@
         <v>38</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="13">
@@ -1013,31 +1381,31 @@
         <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1045,49 +1413,49 @@
         <f xml:space="preserve"> A2 + 1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>121</v>
+      <c r="B3" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="27" t="str">
         <f t="shared" ref="D3:D66" si="0">DEC2BIN($A3, 8)</f>
         <v>00000001</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" s="27" t="str">
         <f t="shared" ref="E3:E66" si="1">DEC2HEX($A3, 2)</f>
         <v>01</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>123</v>
+        <v>31</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1095,34 +1463,62 @@
         <f t="shared" ref="A4:A67" si="2" xml:space="preserve"> A3 + 1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8" t="str">
+      <c r="B4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>00000010</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00000011</v>
@@ -1131,24 +1527,44 @@
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="F5" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
+      <c r="B6" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -1162,34 +1578,34 @@
         <v>04</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>246</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1197,49 +1613,49 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
+      <c r="B7" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>00000101</v>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1247,49 +1663,49 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
+      <c r="B8" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>00000110</v>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1297,49 +1713,49 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>35</v>
+      <c r="B9" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>00000111</v>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>76</v>
+        <v>245</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1347,7 +1763,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="13">
@@ -1365,31 +1781,31 @@
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1397,7 +1813,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="13">
@@ -1415,31 +1831,31 @@
         <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1447,7 +1863,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="13">
@@ -1465,31 +1881,31 @@
         <v>14</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1497,8 +1913,8 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>66</v>
+      <c r="B13" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="13">
         <v>2</v>
@@ -1518,28 +1934,28 @@
         <v>55</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1547,7 +1963,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="13">
@@ -1565,31 +1981,31 @@
         <v>21</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1597,7 +2013,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13">
@@ -1615,31 +2031,31 @@
         <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1647,7 +2063,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="13">
@@ -1665,31 +2081,31 @@
         <v>23</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1697,8 +2113,8 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>67</v>
+      <c r="B17" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
@@ -1718,28 +2134,28 @@
         <v>55</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1748,48 +2164,48 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C18" s="13">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010000</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="24" t="str">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1797,49 +2213,49 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
+      <c r="B19" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C19" s="13">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010001</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>76</v>
+        <v>106</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1847,49 +2263,49 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>26</v>
+      <c r="B20" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C20" s="13">
-        <v>3</v>
-      </c>
-      <c r="D20" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010010</v>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>76</v>
+        <v>107</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1897,49 +2313,49 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>67</v>
+      <c r="B21" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010011</v>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1948,48 +2364,48 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010100</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="24" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1997,49 +2413,49 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>103</v>
+      <c r="B23" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010101</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="24" t="str">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,49 +2463,49 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>104</v>
+      <c r="B24" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010110</v>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="24" t="str">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2097,49 +2513,49 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>105</v>
+      <c r="B25" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00010111</v>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="24" t="str">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2147,49 +2563,49 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>93</v>
+      <c r="B26" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D26" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011000</v>
       </c>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="24" t="str">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2197,49 +2613,49 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>106</v>
+      <c r="B27" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D27" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011001</v>
       </c>
-      <c r="E27" s="8" t="str">
+      <c r="E27" s="24" t="str">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2247,49 +2663,49 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>107</v>
+      <c r="B28" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="13">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D28" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011010</v>
       </c>
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1A</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2297,49 +2713,49 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>105</v>
+      <c r="B29" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D29" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011011</v>
       </c>
-      <c r="E29" s="8" t="str">
+      <c r="E29" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1B</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2349,16 +2765,16 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011100</v>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1C</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -2373,13 +2789,13 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="8" t="str">
+      <c r="D31" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011101</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E31" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1D</v>
       </c>
@@ -2399,13 +2815,13 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="8" t="str">
+      <c r="D32" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011110</v>
       </c>
-      <c r="E32" s="8" t="str">
+      <c r="E32" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1E</v>
       </c>
@@ -2425,13 +2841,13 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="8" t="str">
+      <c r="D33" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00011111</v>
       </c>
-      <c r="E33" s="8" t="str">
+      <c r="E33" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1F</v>
       </c>
@@ -2451,8 +2867,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="13">
+        <v>2</v>
+      </c>
       <c r="D34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100000</v>
@@ -2461,24 +2881,48 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
+      <c r="F34" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="13">
+        <v>3</v>
+      </c>
       <c r="D35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100001</v>
@@ -2487,76 +2931,148 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
+      <c r="F35" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="8" t="str">
+      <c r="B36" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="13">
+        <v>2</v>
+      </c>
+      <c r="D36" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00100010</v>
       </c>
-      <c r="E36" s="8" t="str">
+      <c r="E36" s="23" t="str">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
+      <c r="F36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="8" t="str">
+      <c r="B37" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="13">
+        <v>3</v>
+      </c>
+      <c r="D37" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00100011</v>
       </c>
-      <c r="E37" s="8" t="str">
+      <c r="E37" s="23" t="str">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
+      <c r="F37" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="13">
+        <v>2</v>
+      </c>
       <c r="D38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100100</v>
@@ -2565,24 +3081,48 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
+      <c r="F38" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="13">
+        <v>3</v>
+      </c>
       <c r="D39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100101</v>
@@ -2591,68 +3131,136 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
+      <c r="F39" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="8" t="str">
+      <c r="B40" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="13">
+        <v>2</v>
+      </c>
+      <c r="D40" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00100110</v>
       </c>
-      <c r="E40" s="8" t="str">
+      <c r="E40" s="23" t="str">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
+      <c r="F40" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="8" t="str">
+      <c r="B41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="13">
+        <v>3</v>
+      </c>
+      <c r="D41" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00100111</v>
       </c>
-      <c r="E41" s="8" t="str">
+      <c r="E41" s="23" t="str">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
+      <c r="F41" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
@@ -2867,8 +3475,12 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="13">
+        <v>2</v>
+      </c>
       <c r="D50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110000</v>
@@ -2877,24 +3489,48 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
+      <c r="F50" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="13">
+        <v>3</v>
+      </c>
       <c r="D51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110001</v>
@@ -2903,24 +3539,48 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
+      <c r="F51" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="13">
+        <v>2</v>
+      </c>
       <c r="D52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110010</v>
@@ -2929,24 +3589,48 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
+      <c r="F52" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O52" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="13">
+        <v>3</v>
+      </c>
       <c r="D53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110011</v>
@@ -2955,172 +3639,336 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
+      <c r="F53" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="8" t="str">
+      <c r="B54" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="13">
+        <v>2</v>
+      </c>
+      <c r="D54" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00110100</v>
       </c>
-      <c r="E54" s="8" t="str">
+      <c r="E54" s="23" t="str">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
+      <c r="F54" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="8" t="str">
+      <c r="B55" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="13">
+        <v>3</v>
+      </c>
+      <c r="D55" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00110101</v>
       </c>
-      <c r="E55" s="8" t="str">
+      <c r="E55" s="23" t="str">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
+      <c r="F55" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="8" t="str">
+      <c r="B56" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="13">
+        <v>2</v>
+      </c>
+      <c r="D56" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00110110</v>
       </c>
-      <c r="E56" s="8" t="str">
+      <c r="E56" s="23" t="str">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
+      <c r="F56" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O56" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="8" t="str">
+      <c r="B57" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="13">
+        <v>3</v>
+      </c>
+      <c r="D57" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00110111</v>
       </c>
-      <c r="E57" s="8" t="str">
+      <c r="E57" s="23" t="str">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
+      <c r="F57" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O57" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="8" t="str">
+      <c r="B58" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="13">
+        <v>2</v>
+      </c>
+      <c r="D58" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00111000</v>
       </c>
-      <c r="E58" s="8" t="str">
+      <c r="E58" s="23" t="str">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
+      <c r="F58" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O58" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="8" t="str">
+      <c r="B59" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="13">
+        <v>3</v>
+      </c>
+      <c r="D59" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00111001</v>
       </c>
-      <c r="E59" s="8" t="str">
+      <c r="E59" s="23" t="str">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
+      <c r="F59" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O59" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
@@ -3283,8 +4131,12 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1</v>
+      </c>
       <c r="D66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01000000</v>
@@ -3293,24 +4145,48 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
+      <c r="F66" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="13"/>
+      <c r="B67" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1</v>
+      </c>
       <c r="D67" s="8" t="str">
         <f t="shared" ref="D67:D130" si="3">DEC2BIN($A67, 8)</f>
         <v>01000001</v>
@@ -3319,24 +4195,48 @@
         <f t="shared" ref="E67:E130" si="4">DEC2HEX($A67, 2)</f>
         <v>41</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
+      <c r="F67" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O67" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <f t="shared" ref="A68:A131" si="5" xml:space="preserve"> A67 + 1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="13"/>
+      <c r="B68" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1</v>
+      </c>
       <c r="D68" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01000010</v>
@@ -3345,24 +4245,48 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
+      <c r="F68" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O68" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
       <c r="D69" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01000011</v>
@@ -3371,24 +4295,48 @@
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
+      <c r="F69" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O69" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1</v>
+      </c>
       <c r="D70" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01000100</v>
@@ -3397,24 +4345,48 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
+      <c r="F70" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K70" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O70" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="13"/>
+      <c r="B71" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
       <c r="D71" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01000101</v>
@@ -3423,24 +4395,48 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
+      <c r="F71" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L71" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O71" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="13"/>
+      <c r="B72" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
       <c r="D72" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01000110</v>
@@ -3449,24 +4445,48 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
+      <c r="F72" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K72" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M72" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="13"/>
+      <c r="B73" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1</v>
+      </c>
       <c r="D73" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01000111</v>
@@ -3475,24 +4495,48 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
+      <c r="F73" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N73" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O73" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="13"/>
+      <c r="B74" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="13">
+        <v>3</v>
+      </c>
       <c r="D74" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01001000</v>
@@ -3501,24 +4545,48 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
+      <c r="F74" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M74" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O74" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="13"/>
+      <c r="B75" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="13">
+        <v>3</v>
+      </c>
       <c r="D75" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01001001</v>
@@ -3527,16 +4595,36 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
+      <c r="F75" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K75" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O75" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
@@ -3699,156 +4787,300 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="8" t="str">
+      <c r="B82" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1</v>
+      </c>
+      <c r="D82" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010000</v>
       </c>
-      <c r="E82" s="8" t="str">
+      <c r="E82" s="23" t="str">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
+      <c r="F82" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L82" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M82" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N82" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O82" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="8" t="str">
+      <c r="B83" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1</v>
+      </c>
+      <c r="D83" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010001</v>
       </c>
-      <c r="E83" s="8" t="str">
+      <c r="E83" s="23" t="str">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
+      <c r="F83" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L83" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M83" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O83" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="8" t="str">
+      <c r="B84" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010010</v>
       </c>
-      <c r="E84" s="8" t="str">
+      <c r="E84" s="23" t="str">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
+      <c r="F84" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L84" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M84" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O84" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="8" t="str">
+      <c r="B85" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1</v>
+      </c>
+      <c r="D85" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010011</v>
       </c>
-      <c r="E85" s="8" t="str">
+      <c r="E85" s="23" t="str">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
+      <c r="F85" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K85" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L85" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M85" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O85" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="8" t="str">
+      <c r="B86" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010100</v>
       </c>
-      <c r="E86" s="8" t="str">
+      <c r="E86" s="23" t="str">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
+      <c r="F86" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K86" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L86" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M86" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N86" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O86" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="8" t="str">
+      <c r="B87" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1</v>
+      </c>
+      <c r="D87" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010101</v>
       </c>
-      <c r="E87" s="8" t="str">
+      <c r="E87" s="23" t="str">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
+      <c r="F87" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L87" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M87" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N87" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O87" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
@@ -3857,11 +5089,11 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="13"/>
-      <c r="D88" s="8" t="str">
+      <c r="D88" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010110</v>
       </c>
-      <c r="E88" s="8" t="str">
+      <c r="E88" s="23" t="str">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
@@ -3883,11 +5115,11 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="13"/>
-      <c r="D89" s="8" t="str">
+      <c r="D89" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01010111</v>
       </c>
-      <c r="E89" s="8" t="str">
+      <c r="E89" s="23" t="str">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
@@ -3907,112 +5139,212 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="8" t="str">
+      <c r="B90" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="13">
+        <v>3</v>
+      </c>
+      <c r="D90" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01011000</v>
       </c>
-      <c r="E90" s="8" t="str">
+      <c r="E90" s="23" t="str">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="F90" s="12"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
+      <c r="F90" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O90" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="8" t="str">
+      <c r="B91" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="13">
+        <v>3</v>
+      </c>
+      <c r="D91" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01011001</v>
       </c>
-      <c r="E91" s="8" t="str">
+      <c r="E91" s="23" t="str">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
+      <c r="F91" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K91" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N91" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O91" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="8" t="str">
+      <c r="B92" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="13">
+        <v>3</v>
+      </c>
+      <c r="D92" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01011010</v>
       </c>
-      <c r="E92" s="8" t="str">
+      <c r="E92" s="23" t="str">
         <f t="shared" si="4"/>
         <v>5A</v>
       </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
+      <c r="F92" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M92" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N92" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O92" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="8" t="str">
+      <c r="B93" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="13">
+        <v>3</v>
+      </c>
+      <c r="D93" s="23" t="str">
         <f t="shared" si="3"/>
         <v>01011011</v>
       </c>
-      <c r="E93" s="8" t="str">
+      <c r="E93" s="23" t="str">
         <f t="shared" si="4"/>
         <v>5B</v>
       </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
+      <c r="F93" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O93" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C94" s="13">
+        <v>3</v>
+      </c>
       <c r="D94" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01011100</v>
@@ -4021,24 +5353,48 @@
         <f t="shared" si="4"/>
         <v>5C</v>
       </c>
-      <c r="F94" s="12"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
+      <c r="F94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L94" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M94" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N94" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O94" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C95" s="13">
+        <v>3</v>
+      </c>
       <c r="D95" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01011101</v>
@@ -4047,16 +5403,36 @@
         <f t="shared" si="4"/>
         <v>5D</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
+      <c r="F95" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L95" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M95" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N95" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O95" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
@@ -4947,7 +6323,7 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C130" s="13">
@@ -4968,28 +6344,28 @@
         <v>55</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J130" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K130" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L130" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M130" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N130" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O130" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -4997,7 +6373,7 @@
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C131" s="13">
@@ -5018,28 +6394,28 @@
         <v>55</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K131" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L131" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M131" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O131" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -5047,7 +6423,7 @@
         <f t="shared" ref="A132:A195" si="8" xml:space="preserve"> A131 + 1</f>
         <v>130</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C132" s="13">
@@ -5068,28 +6444,28 @@
         <v>55</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I132" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J132" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K132" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L132" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M132" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O132" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -5097,7 +6473,7 @@
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="13">
@@ -5115,31 +6491,31 @@
         <v>47</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J133" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K133" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L133" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M133" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O133" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -5147,8 +6523,8 @@
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>42</v>
+      <c r="B134" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="C134" s="13">
         <v>1</v>
@@ -5162,34 +6538,34 @@
         <v>84</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="G134" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J134" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K134" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L134" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M134" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N134" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O134" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -5197,8 +6573,8 @@
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>43</v>
+      <c r="B135" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="C135" s="13">
         <v>1</v>
@@ -5212,34 +6588,34 @@
         <v>85</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="G135" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J135" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K135" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L135" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M135" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O135" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -5247,8 +6623,8 @@
         <f t="shared" si="8"/>
         <v>134</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>52</v>
+      <c r="B136" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="C136" s="13">
         <v>1</v>
@@ -5262,34 +6638,34 @@
         <v>86</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J136" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K136" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L136" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M136" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N136" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O136" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -5297,8 +6673,8 @@
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>44</v>
+      <c r="B137" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="C137" s="13">
         <v>1</v>
@@ -5312,34 +6688,34 @@
         <v>87</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>76</v>
+        <v>138</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I137" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J137" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K137" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L137" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M137" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O137" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -5347,49 +6723,49 @@
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>92</v>
+      <c r="B138" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C138" s="13">
         <v>1</v>
       </c>
-      <c r="D138" s="8" t="str">
+      <c r="D138" s="22" t="str">
         <f t="shared" si="6"/>
         <v>10001000</v>
       </c>
-      <c r="E138" s="8" t="str">
+      <c r="E138" s="22" t="str">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>76</v>
+        <v>48</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J138" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K138" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L138" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M138" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N138" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O138" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -5397,49 +6773,49 @@
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>94</v>
+      <c r="B139" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="C139" s="13">
         <v>1</v>
       </c>
-      <c r="D139" s="8" t="str">
+      <c r="D139" s="22" t="str">
         <f t="shared" si="6"/>
         <v>10001001</v>
       </c>
-      <c r="E139" s="8" t="str">
+      <c r="E139" s="22" t="str">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K139" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L139" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M139" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O139" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -5447,60 +6823,112 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="8" t="str">
+      <c r="B140" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="13">
+        <v>1</v>
+      </c>
+      <c r="D140" s="22" t="str">
         <f t="shared" si="6"/>
         <v>10001010</v>
       </c>
-      <c r="E140" s="8" t="str">
+      <c r="E140" s="22" t="str">
         <f t="shared" si="7"/>
         <v>8A</v>
       </c>
-      <c r="F140" s="12"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="18"/>
+      <c r="F140" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H140" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J140" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K140" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L140" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M140" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N140" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O140" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="8" t="str">
+      <c r="B141" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" s="13">
+        <v>1</v>
+      </c>
+      <c r="D141" s="22" t="str">
         <f t="shared" si="6"/>
         <v>10001011</v>
       </c>
-      <c r="E141" s="8" t="str">
+      <c r="E141" s="22" t="str">
         <f t="shared" si="7"/>
         <v>8B</v>
       </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="18"/>
+      <c r="F141" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J141" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K141" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L141" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M141" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N141" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O141" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="13"/>
+      <c r="B142" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" s="13">
+        <v>1</v>
+      </c>
       <c r="D142" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10001100</v>
@@ -5509,24 +6937,48 @@
         <f t="shared" si="7"/>
         <v>8C</v>
       </c>
-      <c r="F142" s="12"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="18"/>
+      <c r="F142" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H142" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I142" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J142" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K142" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L142" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M142" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N142" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O142" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="B143" s="10"/>
-      <c r="C143" s="13"/>
+      <c r="B143" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="13">
+        <v>1</v>
+      </c>
       <c r="D143" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10001101</v>
@@ -5535,24 +6987,48 @@
         <f t="shared" si="7"/>
         <v>8D</v>
       </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
+      <c r="F143" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J143" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K143" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L143" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M143" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N143" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O143" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="13"/>
+      <c r="B144" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="13">
+        <v>1</v>
+      </c>
       <c r="D144" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10001110</v>
@@ -5561,24 +7037,48 @@
         <f t="shared" si="7"/>
         <v>8E</v>
       </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="18"/>
+      <c r="F144" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J144" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K144" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L144" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M144" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N144" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O144" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <f t="shared" si="8"/>
         <v>143</v>
       </c>
-      <c r="B145" s="10"/>
-      <c r="C145" s="13"/>
+      <c r="B145" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" s="13">
+        <v>1</v>
+      </c>
       <c r="D145" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10001111</v>
@@ -5587,68 +7087,136 @@
         <f t="shared" si="7"/>
         <v>8F</v>
       </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="18"/>
+      <c r="F145" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O145" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="B146" s="10"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="8" t="str">
+      <c r="B146" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" s="13">
+        <v>1</v>
+      </c>
+      <c r="D146" s="22" t="str">
         <f t="shared" si="6"/>
         <v>10010000</v>
       </c>
-      <c r="E146" s="8" t="str">
+      <c r="E146" s="22" t="str">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="F146" s="12"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="18"/>
+      <c r="F146" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J146" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K146" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L146" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M146" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N146" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O146" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <f t="shared" si="8"/>
         <v>145</v>
       </c>
-      <c r="B147" s="10"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="8" t="str">
+      <c r="B147" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="13">
+        <v>1</v>
+      </c>
+      <c r="D147" s="22" t="str">
         <f t="shared" si="6"/>
         <v>10010001</v>
       </c>
-      <c r="E147" s="8" t="str">
+      <c r="E147" s="22" t="str">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="18"/>
+      <c r="F147" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J147" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K147" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L147" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M147" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N147" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O147" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
@@ -6019,8 +7587,12 @@
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="B162" s="10"/>
-      <c r="C162" s="13"/>
+      <c r="B162" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" s="13">
+        <v>2</v>
+      </c>
       <c r="D162" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100000</v>
@@ -6029,24 +7601,48 @@
         <f t="shared" si="7"/>
         <v>A0</v>
       </c>
-      <c r="F162" s="12"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
+      <c r="F162" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I162" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J162" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K162" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L162" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M162" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N162" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O162" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
-      <c r="B163" s="10"/>
-      <c r="C163" s="13"/>
+      <c r="B163" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C163" s="13">
+        <v>2</v>
+      </c>
       <c r="D163" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100001</v>
@@ -6055,24 +7651,48 @@
         <f t="shared" si="7"/>
         <v>A1</v>
       </c>
-      <c r="F163" s="12"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="18"/>
+      <c r="F163" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O163" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
-      <c r="B164" s="10"/>
-      <c r="C164" s="13"/>
+      <c r="B164" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C164" s="13">
+        <v>2</v>
+      </c>
       <c r="D164" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100010</v>
@@ -6081,24 +7701,48 @@
         <f t="shared" si="7"/>
         <v>A2</v>
       </c>
-      <c r="F164" s="12"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="18"/>
+      <c r="F164" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G164" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I164" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J164" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K164" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L164" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M164" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N164" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O164" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="B165" s="10"/>
-      <c r="C165" s="13"/>
+      <c r="B165" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C165" s="13">
+        <v>2</v>
+      </c>
       <c r="D165" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100011</v>
@@ -6107,24 +7751,48 @@
         <f t="shared" si="7"/>
         <v>A3</v>
       </c>
-      <c r="F165" s="12"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="18"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="18"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="18"/>
+      <c r="F165" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G165" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O165" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="B166" s="10"/>
-      <c r="C166" s="13"/>
+      <c r="B166" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" s="13">
+        <v>2</v>
+      </c>
       <c r="D166" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100100</v>
@@ -6133,24 +7801,48 @@
         <f t="shared" si="7"/>
         <v>A4</v>
       </c>
-      <c r="F166" s="12"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="18"/>
+      <c r="F166" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H166" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J166" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K166" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L166" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M166" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N166" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O166" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="B167" s="10"/>
-      <c r="C167" s="13"/>
+      <c r="B167" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" s="13">
+        <v>2</v>
+      </c>
       <c r="D167" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100101</v>
@@ -6159,24 +7851,48 @@
         <f t="shared" si="7"/>
         <v>A5</v>
       </c>
-      <c r="F167" s="12"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
+      <c r="F167" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G167" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I167" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J167" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K167" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L167" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M167" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N167" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O167" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="B168" s="10"/>
-      <c r="C168" s="13"/>
+      <c r="B168" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C168" s="13">
+        <v>2</v>
+      </c>
       <c r="D168" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100110</v>
@@ -6185,24 +7901,48 @@
         <f t="shared" si="7"/>
         <v>A6</v>
       </c>
-      <c r="F168" s="12"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
+      <c r="F168" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G168" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I168" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J168" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K168" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L168" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M168" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N168" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O168" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <f t="shared" si="8"/>
         <v>167</v>
       </c>
-      <c r="B169" s="10"/>
-      <c r="C169" s="13"/>
+      <c r="B169" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C169" s="13">
+        <v>2</v>
+      </c>
       <c r="D169" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10100111</v>
@@ -6211,24 +7951,48 @@
         <f t="shared" si="7"/>
         <v>A7</v>
       </c>
-      <c r="F169" s="12"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
+      <c r="F169" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I169" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J169" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K169" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L169" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M169" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N169" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O169" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="B170" s="10"/>
-      <c r="C170" s="13"/>
+      <c r="B170" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" s="13">
+        <v>2</v>
+      </c>
       <c r="D170" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101000</v>
@@ -6237,24 +8001,48 @@
         <f t="shared" si="7"/>
         <v>A8</v>
       </c>
-      <c r="F170" s="12"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="18"/>
+      <c r="F170" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G170" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J170" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K170" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L170" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M170" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N170" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O170" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <f t="shared" si="8"/>
         <v>169</v>
       </c>
-      <c r="B171" s="10"/>
-      <c r="C171" s="13"/>
+      <c r="B171" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C171" s="13">
+        <v>2</v>
+      </c>
       <c r="D171" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101001</v>
@@ -6263,24 +8051,48 @@
         <f t="shared" si="7"/>
         <v>A9</v>
       </c>
-      <c r="F171" s="12"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="18"/>
+      <c r="F171" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G171" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I171" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J171" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K171" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L171" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M171" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N171" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O171" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="B172" s="10"/>
-      <c r="C172" s="13"/>
+      <c r="B172" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" s="13">
+        <v>2</v>
+      </c>
       <c r="D172" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101010</v>
@@ -6289,24 +8101,48 @@
         <f t="shared" si="7"/>
         <v>AA</v>
       </c>
-      <c r="F172" s="12"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="18"/>
+      <c r="F172" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G172" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H172" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I172" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J172" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K172" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L172" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M172" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N172" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O172" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <f t="shared" si="8"/>
         <v>171</v>
       </c>
-      <c r="B173" s="10"/>
-      <c r="C173" s="13"/>
+      <c r="B173" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C173" s="13">
+        <v>2</v>
+      </c>
       <c r="D173" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101011</v>
@@ -6315,24 +8151,48 @@
         <f t="shared" si="7"/>
         <v>AB</v>
       </c>
-      <c r="F173" s="12"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
+      <c r="F173" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G173" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O173" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <f t="shared" si="8"/>
         <v>172</v>
       </c>
-      <c r="B174" s="10"/>
-      <c r="C174" s="13"/>
+      <c r="B174" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" s="13">
+        <v>2</v>
+      </c>
       <c r="D174" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101100</v>
@@ -6341,24 +8201,48 @@
         <f t="shared" si="7"/>
         <v>AC</v>
       </c>
-      <c r="F174" s="12"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="18"/>
+      <c r="F174" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G174" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H174" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J174" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K174" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L174" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M174" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N174" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O174" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <f t="shared" si="8"/>
         <v>173</v>
       </c>
-      <c r="B175" s="10"/>
-      <c r="C175" s="13"/>
+      <c r="B175" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175" s="13">
+        <v>2</v>
+      </c>
       <c r="D175" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101101</v>
@@ -6367,24 +8251,48 @@
         <f t="shared" si="7"/>
         <v>AD</v>
       </c>
-      <c r="F175" s="12"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="18"/>
+      <c r="F175" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H175" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I175" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J175" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K175" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L175" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M175" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N175" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O175" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <f t="shared" si="8"/>
         <v>174</v>
       </c>
-      <c r="B176" s="10"/>
-      <c r="C176" s="13"/>
+      <c r="B176" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C176" s="13">
+        <v>2</v>
+      </c>
       <c r="D176" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101110</v>
@@ -6393,24 +8301,48 @@
         <f t="shared" si="7"/>
         <v>AE</v>
       </c>
-      <c r="F176" s="12"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18"/>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="18"/>
+      <c r="F176" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O176" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
-      <c r="B177" s="10"/>
-      <c r="C177" s="13"/>
+      <c r="B177" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C177" s="13">
+        <v>2</v>
+      </c>
       <c r="D177" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10101111</v>
@@ -6419,16 +8351,36 @@
         <f t="shared" si="7"/>
         <v>AF</v>
       </c>
-      <c r="F177" s="12"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="18"/>
+      <c r="F177" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G177" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O177" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
@@ -8099,26 +10051,50 @@
         <f t="shared" si="11"/>
         <v>240</v>
       </c>
-      <c r="B242" s="10"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="8" t="str">
+      <c r="B242" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C242" s="13">
+        <v>1</v>
+      </c>
+      <c r="D242" s="27" t="str">
         <f t="shared" si="9"/>
         <v>11110000</v>
       </c>
-      <c r="E242" s="8" t="str">
+      <c r="E242" s="27" t="str">
         <f t="shared" si="10"/>
         <v>F0</v>
       </c>
-      <c r="F242" s="12"/>
-      <c r="G242" s="15"/>
-      <c r="H242" s="18"/>
-      <c r="I242" s="18"/>
-      <c r="J242" s="18"/>
-      <c r="K242" s="18"/>
-      <c r="L242" s="18"/>
-      <c r="M242" s="18"/>
-      <c r="N242" s="18"/>
-      <c r="O242" s="18"/>
+      <c r="F242" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H242" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I242" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J242" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K242" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L242" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M242" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N242" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O242" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
@@ -8307,7 +10283,7 @@
         <f t="shared" si="11"/>
         <v>248</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C250" s="13">
@@ -8325,31 +10301,31 @@
         <v>62</v>
       </c>
       <c r="G250" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O250" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -8357,7 +10333,7 @@
         <f t="shared" si="11"/>
         <v>249</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C251" s="13">
@@ -8375,31 +10351,31 @@
         <v>61</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O251" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -8408,7 +10384,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C252" s="13">
         <v>3</v>
@@ -8422,34 +10398,34 @@
         <v>FA</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I252" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J252" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K252" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L252" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M252" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N252" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O252" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -8458,7 +10434,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C253" s="13">
         <v>1</v>
@@ -8472,34 +10448,34 @@
         <v>FB</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I253" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J253" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K253" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L253" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M253" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N253" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O253" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -8507,7 +10483,7 @@
         <f t="shared" si="11"/>
         <v>252</v>
       </c>
-      <c r="B254" s="10"/>
+      <c r="B254" s="25"/>
       <c r="C254" s="13"/>
       <c r="D254" s="8" t="str">
         <f t="shared" si="9"/>
@@ -8559,17 +10535,17 @@
         <f t="shared" si="11"/>
         <v>254</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C256" s="13">
         <v>1</v>
       </c>
-      <c r="D256" s="8" t="str">
+      <c r="D256" s="27" t="str">
         <f t="shared" si="9"/>
         <v>11111110</v>
       </c>
-      <c r="E256" s="8" t="str">
+      <c r="E256" s="27" t="str">
         <f t="shared" si="10"/>
         <v>FE</v>
       </c>
@@ -8577,31 +10553,31 @@
         <v>9</v>
       </c>
       <c r="G256" s="16" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O256" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
@@ -8609,7 +10585,7 @@
         <f t="shared" si="11"/>
         <v>255</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C257" s="13">
@@ -8627,35 +10603,35 @@
         <v>10</v>
       </c>
       <c r="G257" s="16" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O257" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O257" xr:uid="{21C36308-4D07-45BA-A0CE-46B74C78C8C6}"/>
+  <autoFilter ref="A1:P257" xr:uid="{B2E86480-5B98-4470-AC29-B0B5708F558D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8665,180 +10641,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C3FB96-BE49-4DC7-ADC4-F3606FE0BC2E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="21.7109375" style="21" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>139</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="12" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>141</v>
+      <c r="A15" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>79</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Projects/RVM/src/rvm.xlsx
+++ b/Projects/RVM/src/rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Development\QuickBasic64\Projects\RVM\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9C20A-E96C-41AD-9AF6-B8D8EF1C8143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499C71-09D3-4237-A5E1-15E1AE9AD514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Memory Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opcodes!$A$1:$P$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opcodes!$A$1:$P$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="254">
   <si>
     <t>Opcode</t>
   </si>
@@ -394,9 +394,6 @@
     <t>$0020</t>
   </si>
   <si>
-    <t>$0021</t>
-  </si>
-  <si>
     <t>BRK</t>
   </si>
   <si>
@@ -406,15 +403,6 @@
     <t>Keyboard buffer (default).</t>
   </si>
   <si>
-    <t>$0022</t>
-  </si>
-  <si>
-    <t>Next offset to be read from keyboard buffer.</t>
-  </si>
-  <si>
-    <t>Next offset to be written into keyboard buffer.</t>
-  </si>
-  <si>
     <t>Initial value for the accumulator.</t>
   </si>
   <si>
@@ -751,27 +739,12 @@
     <t>ASL $hhhh</t>
   </si>
   <si>
-    <t>Used to e.g. react to user inputs.</t>
-  </si>
-  <si>
     <t>Pointer to stack page; minimum value $01; will be multiplied by $0100.</t>
   </si>
   <si>
     <t>Pointer to keyboard buffer page; minimum value $01; will be multiplied by $0100.</t>
   </si>
   <si>
-    <t>Routine to read next key from keyboard buffer.</t>
-  </si>
-  <si>
-    <t>00000010</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Interrupt programme.</t>
-  </si>
-  <si>
     <t>Transfer stack pointer into accu.</t>
   </si>
   <si>
@@ -785,6 +758,48 @@
   </si>
   <si>
     <t>Currently the same as stopping the CPU..</t>
+  </si>
+  <si>
+    <t>Last pressed key (default).</t>
+  </si>
+  <si>
+    <t>Request interrupt manually.</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>Clear interrupt flag.</t>
+  </si>
+  <si>
+    <t>SEI</t>
+  </si>
+  <si>
+    <t>Set interrupt flag.</t>
+  </si>
+  <si>
+    <t>EQU</t>
+  </si>
+  <si>
+    <t>Save the next byte.</t>
+  </si>
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>Set start address.</t>
+  </si>
+  <si>
+    <t>Only in assembly source code.</t>
+  </si>
+  <si>
+    <t>$0350</t>
+  </si>
+  <si>
+    <t>$034F</t>
+  </si>
+  <si>
+    <t>Routine to read key from keyboard buffer (with fill bytes).</t>
   </si>
 </sst>
 </file>
@@ -872,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -908,11 +923,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -998,13 +1026,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,11 +1327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O257"/>
+  <dimension ref="A1:O259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1359,29 +1399,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>0</v>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <f>DEC2BIN($A2, 8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="E2" s="8" t="str">
-        <f>DEC2HEX($A2, 2)</f>
-        <v>00</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>74</v>
+        <v>247</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>74</v>
@@ -1408,33 +1446,30 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f xml:space="preserve"> A2 + 1</f>
-        <v>1</v>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="str">
-        <f t="shared" ref="D3:D66" si="0">DEC2BIN($A3, 8)</f>
-        <v>00000001</v>
-      </c>
-      <c r="E3" s="27" t="str">
-        <f t="shared" ref="E3:E66" si="1">DEC2HEX($A3, 2)</f>
-        <v>01</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>74</v>
+        <v>249</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>74</v>
@@ -1446,13 +1481,13 @@
         <v>74</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>74</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>74</v>
@@ -1460,131 +1495,130 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A67" si="2" xml:space="preserve"> A3 + 1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="str">
+      <c r="D4" s="8" t="str">
+        <f>DEC2BIN($A4, 8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f>DEC2HEX($A4, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f xml:space="preserve"> A4 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="str">
+        <f t="shared" ref="D5:D68" si="0">DEC2BIN($A5, 8)</f>
+        <v>00000001</v>
+      </c>
+      <c r="E5" s="27" t="str">
+        <f t="shared" ref="E5:E68" si="1">DEC2HEX($A5, 2)</f>
+        <v>01</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f t="shared" ref="A6:A69" si="2" xml:space="preserve"> A5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>00000010</v>
       </c>
-      <c r="E4" s="27" t="str">
+      <c r="E6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>00000011</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>00000100</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>55</v>
+      <c r="G6" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>74</v>
@@ -1611,33 +1645,33 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00000101</v>
-      </c>
-      <c r="E7" s="27" t="str">
+        <v>00000011</v>
+      </c>
+      <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>03</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>74</v>
+        <v>235</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>74</v>
@@ -1661,27 +1695,27 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00000110</v>
-      </c>
-      <c r="E8" s="27" t="str">
+        <v>00000100</v>
+      </c>
+      <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>04</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>74</v>
+        <v>237</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>74</v>
@@ -1690,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>74</v>
@@ -1711,39 +1745,39 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>00000111</v>
+        <v>00000101</v>
       </c>
       <c r="E9" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
+        <v>05</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>75</v>
@@ -1761,36 +1795,36 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>00001000</v>
-      </c>
-      <c r="E10" s="8" t="str">
+        <v>00000110</v>
+      </c>
+      <c r="E10" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>74</v>
@@ -1811,39 +1845,39 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="C11" s="13">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>00001001</v>
-      </c>
-      <c r="E11" s="8" t="str">
+        <v>00000111</v>
+      </c>
+      <c r="E11" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>09</v>
+        <v>07</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>74</v>
+        <v>236</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>75</v>
@@ -1861,36 +1895,36 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00001010</v>
+        <v>00001000</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0A</v>
+        <v>08</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>74</v>
@@ -1911,39 +1945,39 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="13">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00001011</v>
+        <v>00001001</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0B</v>
+        <v>09</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>75</v>
@@ -1961,36 +1995,36 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00001100</v>
+        <v>00001010</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0C</v>
+        <v>0A</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>74</v>
@@ -2011,39 +2045,39 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00001101</v>
+        <v>00001011</v>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0D</v>
+        <v>0B</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>75</v>
@@ -2061,36 +2095,36 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="13">
         <v>3</v>
       </c>
       <c r="D16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00001110</v>
+        <v>00001100</v>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0E</v>
+        <v>0C</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="18" t="s">
         <v>74</v>
@@ -2111,39 +2145,39 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
       </c>
       <c r="D17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00001111</v>
+        <v>00001101</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0F</v>
+        <v>0D</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>75</v>
@@ -2161,48 +2195,48 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00010000</v>
-      </c>
-      <c r="E18" s="24" t="str">
+        <v>00001110</v>
+      </c>
+      <c r="E18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0E</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>74</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>74</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O18" s="18" t="s">
         <v>74</v>
@@ -2211,24 +2245,24 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>104</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00010001</v>
-      </c>
-      <c r="E19" s="24" t="str">
+        <v>00001111</v>
+      </c>
+      <c r="E19" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>0F</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>55</v>
@@ -2237,22 +2271,22 @@
         <v>74</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>74</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O19" s="18" t="s">
         <v>74</v>
@@ -2261,36 +2295,36 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00010010</v>
+        <v>00010000</v>
       </c>
       <c r="E20" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>55</v>
+        <v>95</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>74</v>
@@ -2311,39 +2345,39 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00010011</v>
+        <v>00010001</v>
       </c>
       <c r="E21" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>74</v>
@@ -2361,27 +2395,27 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>89</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00010100</v>
+        <v>00010010</v>
       </c>
       <c r="E22" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>74</v>
+        <v>107</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>74</v>
@@ -2390,7 +2424,7 @@
         <v>74</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>74</v>
@@ -2411,27 +2445,27 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>101</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00010101</v>
+        <v>00010011</v>
       </c>
       <c r="E23" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>74</v>
@@ -2443,7 +2477,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>74</v>
@@ -2461,27 +2495,27 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
       <c r="D24" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00010110</v>
+        <v>00010100</v>
       </c>
       <c r="E24" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>74</v>
@@ -2511,27 +2545,27 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>103</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
       <c r="D25" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00010111</v>
+        <v>00010101</v>
       </c>
       <c r="E25" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>74</v>
@@ -2561,27 +2595,27 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011000</v>
+        <v>00010110</v>
       </c>
       <c r="E26" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>74</v>
@@ -2596,13 +2630,13 @@
         <v>74</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M26" s="18" t="s">
         <v>74</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O26" s="18" t="s">
         <v>74</v>
@@ -2611,27 +2645,27 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C27" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011001</v>
+        <v>00010111</v>
       </c>
       <c r="E27" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>74</v>
+        <v>99</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>74</v>
@@ -2646,13 +2680,13 @@
         <v>74</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>74</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O27" s="18" t="s">
         <v>74</v>
@@ -2661,24 +2695,24 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="13">
         <v>3</v>
       </c>
       <c r="D28" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011010</v>
+        <v>00011000</v>
       </c>
       <c r="E28" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>1A</v>
+        <v>18</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>74</v>
@@ -2711,27 +2745,27 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="13">
         <v>3</v>
       </c>
       <c r="D29" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011011</v>
+        <v>00011001</v>
       </c>
       <c r="E29" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>1B</v>
+        <v>19</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>74</v>
@@ -2761,72 +2795,120 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="13">
+        <v>3</v>
+      </c>
       <c r="D30" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011100</v>
+        <v>00011010</v>
       </c>
       <c r="E30" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>1C</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+        <v>1A</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3</v>
+      </c>
       <c r="D31" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011101</v>
+        <v>00011011</v>
       </c>
       <c r="E31" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>1D</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
+        <v>1B</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="13"/>
       <c r="D32" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011110</v>
+        <v>00011100</v>
       </c>
       <c r="E32" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>1E</v>
+        <v>1C</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -2839,17 +2921,17 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="13"/>
       <c r="D33" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00011111</v>
+        <v>00011101</v>
       </c>
       <c r="E33" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>1F</v>
+        <v>1D</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="15"/>
@@ -2865,130 +2947,82 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="13">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8" t="str">
+        <v>30</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00100000</v>
-      </c>
-      <c r="E34" s="8" t="str">
+        <v>00011110</v>
+      </c>
+      <c r="E34" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>1E</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="13">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8" t="str">
+        <v>31</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>00100001</v>
-      </c>
-      <c r="E35" s="8" t="str">
+        <v>00011111</v>
+      </c>
+      <c r="E35" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>1F</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>157</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="C36" s="13">
         <v>2</v>
       </c>
-      <c r="D36" s="23" t="str">
+      <c r="D36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00100010</v>
-      </c>
-      <c r="E36" s="23" t="str">
+        <v>00100000</v>
+      </c>
+      <c r="E36" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>74</v>
@@ -3015,30 +3049,30 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>158</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C37" s="13">
         <v>3</v>
       </c>
-      <c r="D37" s="23" t="str">
+      <c r="D37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00100011</v>
-      </c>
-      <c r="E37" s="23" t="str">
+        <v>00100001</v>
+      </c>
+      <c r="E37" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>74</v>
@@ -3065,24 +3099,24 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>163</v>
+        <v>34</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="C38" s="13">
         <v>2</v>
       </c>
-      <c r="D38" s="8" t="str">
+      <c r="D38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00100100</v>
-      </c>
-      <c r="E38" s="8" t="str">
+        <v>00100010</v>
+      </c>
+      <c r="E38" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>74</v>
@@ -3115,24 +3149,24 @@
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>164</v>
+        <v>35</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>154</v>
       </c>
       <c r="C39" s="13">
         <v>3</v>
       </c>
-      <c r="D39" s="8" t="str">
+      <c r="D39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00100101</v>
-      </c>
-      <c r="E39" s="8" t="str">
+        <v>00100011</v>
+      </c>
+      <c r="E39" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>74</v>
@@ -3165,24 +3199,24 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C40" s="13">
         <v>2</v>
       </c>
-      <c r="D40" s="23" t="str">
+      <c r="D40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00100110</v>
-      </c>
-      <c r="E40" s="23" t="str">
+        <v>00100100</v>
+      </c>
+      <c r="E40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>74</v>
@@ -3215,24 +3249,24 @@
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C41" s="13">
         <v>3</v>
       </c>
-      <c r="D41" s="23" t="str">
+      <c r="D41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00100111</v>
-      </c>
-      <c r="E41" s="23" t="str">
+        <v>00100101</v>
+      </c>
+      <c r="E41" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>74</v>
@@ -3265,69 +3299,117 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="8" t="str">
+        <v>38</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="13">
+        <v>2</v>
+      </c>
+      <c r="D42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00101000</v>
-      </c>
-      <c r="E42" s="8" t="str">
+        <v>00100110</v>
+      </c>
+      <c r="E42" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="8" t="str">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="13">
+        <v>3</v>
+      </c>
+      <c r="D43" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00101001</v>
-      </c>
-      <c r="E43" s="8" t="str">
+        <v>00100111</v>
+      </c>
+      <c r="E43" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="13"/>
       <c r="D44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00101010</v>
+        <v>00101000</v>
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2A</v>
+        <v>28</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="15"/>
@@ -3343,17 +3425,17 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="13"/>
       <c r="D45" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00101011</v>
+        <v>00101001</v>
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2B</v>
+        <v>29</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="15"/>
@@ -3369,17 +3451,17 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="13"/>
       <c r="D46" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00101100</v>
+        <v>00101010</v>
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2C</v>
+        <v>2A</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="15"/>
@@ -3395,17 +3477,17 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="13"/>
       <c r="D47" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00101101</v>
+        <v>00101011</v>
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2D</v>
+        <v>2B</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="15"/>
@@ -3421,17 +3503,17 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="13"/>
       <c r="D48" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00101110</v>
+        <v>00101100</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2E</v>
+        <v>2C</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="15"/>
@@ -3447,17 +3529,17 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="13"/>
       <c r="D49" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00101111</v>
+        <v>00101101</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2F</v>
+        <v>2D</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="15"/>
@@ -3473,130 +3555,82 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="13">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00110000</v>
+        <v>00101110</v>
       </c>
       <c r="E50" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M50" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N50" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O50" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>2E</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="13">
-        <v>3</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00110001</v>
+        <v>00101111</v>
       </c>
       <c r="E51" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M51" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O51" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>2F</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C52" s="13">
         <v>2</v>
       </c>
       <c r="D52" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00110010</v>
+        <v>00110000</v>
       </c>
       <c r="E52" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>74</v>
@@ -3623,30 +3657,30 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C53" s="13">
         <v>3</v>
       </c>
       <c r="D53" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00110011</v>
+        <v>00110001</v>
       </c>
       <c r="E53" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>74</v>
@@ -3673,24 +3707,24 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C54" s="13">
         <v>2</v>
       </c>
-      <c r="D54" s="23" t="str">
+      <c r="D54" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00110100</v>
-      </c>
-      <c r="E54" s="23" t="str">
+        <v>00110010</v>
+      </c>
+      <c r="E54" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>74</v>
@@ -3723,24 +3757,24 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55" s="13">
         <v>3</v>
       </c>
-      <c r="D55" s="23" t="str">
+      <c r="D55" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00110101</v>
-      </c>
-      <c r="E55" s="23" t="str">
+        <v>00110011</v>
+      </c>
+      <c r="E55" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>74</v>
@@ -3773,24 +3807,24 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="13">
         <v>2</v>
       </c>
       <c r="D56" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00110110</v>
+        <v>00110100</v>
       </c>
       <c r="E56" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>74</v>
@@ -3823,24 +3857,24 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" s="13">
         <v>3</v>
       </c>
       <c r="D57" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00110111</v>
+        <v>00110101</v>
       </c>
       <c r="E57" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>74</v>
@@ -3873,24 +3907,24 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C58" s="13">
         <v>2</v>
       </c>
       <c r="D58" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00111000</v>
+        <v>00110110</v>
       </c>
       <c r="E58" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>74</v>
@@ -3923,24 +3957,24 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C59" s="13">
         <v>3</v>
       </c>
       <c r="D59" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00111001</v>
+        <v>00110111</v>
       </c>
       <c r="E59" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>74</v>
@@ -3973,69 +4007,117 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="8" t="str">
+        <v>56</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="13">
+        <v>2</v>
+      </c>
+      <c r="D60" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00111010</v>
-      </c>
-      <c r="E60" s="8" t="str">
+        <v>00111000</v>
+      </c>
+      <c r="E60" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3A</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="8" t="str">
+        <v>57</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3</v>
+      </c>
+      <c r="D61" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>00111011</v>
-      </c>
-      <c r="E61" s="8" t="str">
+        <v>00111001</v>
+      </c>
+      <c r="E61" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3B</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O61" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="13"/>
       <c r="D62" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00111100</v>
+        <v>00111010</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>3C</v>
+        <v>3A</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="15"/>
@@ -4051,17 +4133,17 @@
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="13"/>
       <c r="D63" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00111101</v>
+        <v>00111011</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>3D</v>
+        <v>3B</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="15"/>
@@ -4077,17 +4159,17 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="13"/>
       <c r="D64" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00111110</v>
+        <v>00111100</v>
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>3E</v>
+        <v>3C</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="15"/>
@@ -4103,17 +4185,17 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="13"/>
       <c r="D65" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>00111111</v>
+        <v>00111101</v>
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>3F</v>
+        <v>3D</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="15"/>
@@ -4129,236 +4211,188 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>01000000</v>
+        <v>00111110</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J66" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L66" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M66" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N66" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O66" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>3E</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="13">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="8" t="str">
-        <f t="shared" ref="D67:D130" si="3">DEC2BIN($A67, 8)</f>
-        <v>01000001</v>
+        <f t="shared" si="0"/>
+        <v>00111111</v>
       </c>
       <c r="E67" s="8" t="str">
-        <f t="shared" ref="E67:E130" si="4">DEC2HEX($A67, 2)</f>
-        <v>41</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I67" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K67" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L67" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M67" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N67" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O67" s="18" t="s">
-        <v>75</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>3F</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <f t="shared" ref="A68:A131" si="5" xml:space="preserve"> A67 + 1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>194</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C68" s="13">
         <v>1</v>
       </c>
       <c r="D68" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>01000000</v>
+      </c>
+      <c r="E68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O68" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8" t="str">
+        <f t="shared" ref="D69:D132" si="3">DEC2BIN($A69, 8)</f>
+        <v>01000001</v>
+      </c>
+      <c r="E69" s="8" t="str">
+        <f t="shared" ref="E69:E132" si="4">DEC2HEX($A69, 2)</f>
+        <v>41</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O69" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <f t="shared" ref="A70:A133" si="5" xml:space="preserve"> A69 + 1</f>
+        <v>66</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8" t="str">
         <f t="shared" si="3"/>
         <v>01000010</v>
       </c>
-      <c r="E68" s="8" t="str">
+      <c r="E70" s="8" t="str">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K68" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L68" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M68" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N68" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O68" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1</v>
-      </c>
-      <c r="D69" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>01000011</v>
-      </c>
-      <c r="E69" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J69" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K69" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M69" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N69" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O69" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="13">
-        <v>1</v>
-      </c>
-      <c r="D70" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>01000100</v>
-      </c>
-      <c r="E70" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
       <c r="F70" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>55</v>
+        <v>195</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K70" s="18" t="s">
         <v>74</v>
@@ -4379,39 +4413,39 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>195</v>
+        <v>67</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C71" s="13">
         <v>1</v>
       </c>
       <c r="D71" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01000101</v>
+        <v>01000011</v>
       </c>
       <c r="E71" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>74</v>
+        <v>198</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J71" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L71" s="18" t="s">
         <v>75</v>
@@ -4429,36 +4463,36 @@
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>196</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C72" s="13">
         <v>1</v>
       </c>
       <c r="D72" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01000110</v>
+        <v>01000100</v>
       </c>
       <c r="E72" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>74</v>
+        <v>199</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K72" s="18" t="s">
         <v>74</v>
@@ -4479,39 +4513,39 @@
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="C73" s="13">
         <v>1</v>
       </c>
       <c r="D73" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01000111</v>
+        <v>01000101</v>
       </c>
       <c r="E73" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>100</v>
+        <v>193</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J73" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>75</v>
@@ -4529,24 +4563,24 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C74" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001000</v>
+        <v>01000110</v>
       </c>
       <c r="E74" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>74</v>
@@ -4558,7 +4592,7 @@
         <v>74</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K74" s="18" t="s">
         <v>74</v>
@@ -4579,27 +4613,27 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>206</v>
+        <v>71</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C75" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001001</v>
+        <v>01000111</v>
       </c>
       <c r="E75" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>74</v>
+        <v>200</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>74</v>
@@ -4611,7 +4645,7 @@
         <v>74</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L75" s="18" t="s">
         <v>75</v>
@@ -4629,69 +4663,117 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="13">
+        <v>3</v>
+      </c>
       <c r="D76" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001010</v>
+        <v>01001000</v>
       </c>
       <c r="E76" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>4A</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L76" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O76" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="13">
+        <v>3</v>
+      </c>
       <c r="D77" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001011</v>
+        <v>01001001</v>
       </c>
       <c r="E77" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>4B</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N77" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O77" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="13"/>
       <c r="D78" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001100</v>
+        <v>01001010</v>
       </c>
       <c r="E78" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>4C</v>
+        <v>4A</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="15"/>
@@ -4707,17 +4789,17 @@
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="13"/>
       <c r="D79" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001101</v>
+        <v>01001011</v>
       </c>
       <c r="E79" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>4D</v>
+        <v>4B</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="15"/>
@@ -4733,17 +4815,17 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="13"/>
       <c r="D80" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001110</v>
+        <v>01001100</v>
       </c>
       <c r="E80" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>4E</v>
+        <v>4C</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="15"/>
@@ -4759,17 +4841,17 @@
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="13"/>
       <c r="D81" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01001111</v>
+        <v>01001101</v>
       </c>
       <c r="E81" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>4F</v>
+        <v>4D</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="15"/>
@@ -4785,127 +4867,79 @@
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1</v>
-      </c>
-      <c r="D82" s="23" t="str">
+        <v>78</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01010000</v>
-      </c>
-      <c r="E82" s="23" t="str">
+        <v>01001110</v>
+      </c>
+      <c r="E82" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L82" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M82" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N82" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O82" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>4E</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1</v>
-      </c>
-      <c r="D83" s="23" t="str">
+        <v>79</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01010001</v>
-      </c>
-      <c r="E83" s="23" t="str">
+        <v>01001111</v>
+      </c>
+      <c r="E83" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K83" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L83" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M83" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N83" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O83" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>4F</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>210</v>
+        <v>80</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="C84" s="13">
         <v>1</v>
       </c>
       <c r="D84" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01010010</v>
+        <v>01010000</v>
       </c>
       <c r="E84" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>75</v>
@@ -4935,27 +4969,27 @@
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>233</v>
+        <v>81</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="C85" s="13">
         <v>1</v>
       </c>
       <c r="D85" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01010011</v>
+        <v>01010001</v>
       </c>
       <c r="E85" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>75</v>
@@ -4985,30 +5019,30 @@
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C86" s="13">
         <v>1</v>
       </c>
       <c r="D86" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01010100</v>
+        <v>01010010</v>
       </c>
       <c r="E86" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G86" s="23" t="s">
-        <v>74</v>
+        <v>210</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>74</v>
@@ -5035,30 +5069,30 @@
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>226</v>
+        <v>83</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C87" s="13">
         <v>1</v>
       </c>
       <c r="D87" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01010101</v>
+        <v>01010011</v>
       </c>
       <c r="E87" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G87" s="23" t="s">
-        <v>74</v>
+        <v>209</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>74</v>
@@ -5085,179 +5119,179 @@
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1</v>
+      </c>
       <c r="D88" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01010110</v>
+        <v>01010100</v>
       </c>
       <c r="E88" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M88" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N88" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O88" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
       <c r="D89" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01010111</v>
+        <v>01010101</v>
       </c>
       <c r="E89" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K89" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M89" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N89" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O89" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="13">
-        <v>3</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01011000</v>
+        <v>01010110</v>
       </c>
       <c r="E90" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="H90" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J90" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K90" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N90" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O90" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F90" s="12"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" s="13">
-        <v>3</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01011001</v>
+        <v>01010111</v>
       </c>
       <c r="E91" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I91" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J91" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K91" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L91" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M91" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N91" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O91" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>220</v>
+        <v>88</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="C92" s="13">
         <v>3</v>
       </c>
       <c r="D92" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01011010</v>
+        <v>01011000</v>
       </c>
       <c r="E92" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>5A</v>
+        <v>58</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>74</v>
@@ -5287,27 +5321,27 @@
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>236</v>
+        <v>89</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C93" s="13">
         <v>3</v>
       </c>
       <c r="D93" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01011011</v>
+        <v>01011001</v>
       </c>
       <c r="E93" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>5B</v>
+        <v>59</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>74</v>
@@ -5337,27 +5371,27 @@
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C94" s="13">
         <v>3</v>
       </c>
-      <c r="D94" s="8" t="str">
+      <c r="D94" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01011100</v>
-      </c>
-      <c r="E94" s="8" t="str">
+        <v>01011010</v>
+      </c>
+      <c r="E94" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>5C</v>
+        <v>5A</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>74</v>
+        <v>219</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>74</v>
@@ -5387,27 +5421,27 @@
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>230</v>
+        <v>91</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="C95" s="13">
         <v>3</v>
       </c>
-      <c r="D95" s="8" t="str">
+      <c r="D95" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>01011101</v>
-      </c>
-      <c r="E95" s="8" t="str">
+        <v>01011011</v>
+      </c>
+      <c r="E95" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>5D</v>
+        <v>5B</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>74</v>
+        <v>220</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>74</v>
@@ -5437,69 +5471,117 @@
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="13">
+        <v>3</v>
+      </c>
       <c r="D96" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01011110</v>
+        <v>01011100</v>
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>5E</v>
-      </c>
-      <c r="F96" s="12"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
+        <v>5C</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K96" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M96" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N96" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O96" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="13">
+        <v>3</v>
+      </c>
       <c r="D97" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01011111</v>
+        <v>01011101</v>
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>5F</v>
-      </c>
-      <c r="F97" s="12"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
+        <v>5D</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N97" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O97" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="13"/>
       <c r="D98" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100000</v>
+        <v>01011110</v>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>5E</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="15"/>
@@ -5515,17 +5597,17 @@
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <f t="shared" si="5"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="13"/>
       <c r="D99" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100001</v>
+        <v>01011111</v>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>5F</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="15"/>
@@ -5541,17 +5623,17 @@
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <f t="shared" si="5"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="13"/>
       <c r="D100" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100010</v>
+        <v>01100000</v>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="15"/>
@@ -5567,17 +5649,17 @@
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="13"/>
       <c r="D101" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100011</v>
+        <v>01100001</v>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="15"/>
@@ -5593,17 +5675,17 @@
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="13"/>
       <c r="D102" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100100</v>
+        <v>01100010</v>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="15"/>
@@ -5619,17 +5701,17 @@
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="13"/>
       <c r="D103" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100101</v>
+        <v>01100011</v>
       </c>
       <c r="E103" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="15"/>
@@ -5645,17 +5727,17 @@
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="13"/>
       <c r="D104" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100110</v>
+        <v>01100100</v>
       </c>
       <c r="E104" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F104" s="12"/>
       <c r="G104" s="15"/>
@@ -5671,17 +5753,17 @@
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="13"/>
       <c r="D105" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01100111</v>
+        <v>01100101</v>
       </c>
       <c r="E105" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="15"/>
@@ -5697,17 +5779,17 @@
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="13"/>
       <c r="D106" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101000</v>
+        <v>01100110</v>
       </c>
       <c r="E106" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="15"/>
@@ -5723,17 +5805,17 @@
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="13"/>
       <c r="D107" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101001</v>
+        <v>01100111</v>
       </c>
       <c r="E107" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="15"/>
@@ -5749,17 +5831,17 @@
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="13"/>
       <c r="D108" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101010</v>
+        <v>01101000</v>
       </c>
       <c r="E108" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>6A</v>
+        <v>68</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="15"/>
@@ -5775,17 +5857,17 @@
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="13"/>
       <c r="D109" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101011</v>
+        <v>01101001</v>
       </c>
       <c r="E109" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>6B</v>
+        <v>69</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="15"/>
@@ -5801,17 +5883,17 @@
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="13"/>
       <c r="D110" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101100</v>
+        <v>01101010</v>
       </c>
       <c r="E110" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>6C</v>
+        <v>6A</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="15"/>
@@ -5827,17 +5909,17 @@
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="13"/>
       <c r="D111" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101101</v>
+        <v>01101011</v>
       </c>
       <c r="E111" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>6D</v>
+        <v>6B</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="15"/>
@@ -5853,17 +5935,17 @@
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="13"/>
       <c r="D112" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101110</v>
+        <v>01101100</v>
       </c>
       <c r="E112" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>6E</v>
+        <v>6C</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="15"/>
@@ -5879,17 +5961,17 @@
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="13"/>
       <c r="D113" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01101111</v>
+        <v>01101101</v>
       </c>
       <c r="E113" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>6F</v>
+        <v>6D</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="15"/>
@@ -5905,17 +5987,17 @@
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="13"/>
       <c r="D114" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110000</v>
+        <v>01101110</v>
       </c>
       <c r="E114" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>6E</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="15"/>
@@ -5931,17 +6013,17 @@
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="13"/>
       <c r="D115" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110001</v>
+        <v>01101111</v>
       </c>
       <c r="E115" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>6F</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="15"/>
@@ -5957,17 +6039,17 @@
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="13"/>
       <c r="D116" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110010</v>
+        <v>01110000</v>
       </c>
       <c r="E116" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="15"/>
@@ -5983,17 +6065,17 @@
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="13"/>
       <c r="D117" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110011</v>
+        <v>01110001</v>
       </c>
       <c r="E117" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="15"/>
@@ -6009,17 +6091,17 @@
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="13"/>
       <c r="D118" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110100</v>
+        <v>01110010</v>
       </c>
       <c r="E118" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="15"/>
@@ -6035,17 +6117,17 @@
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="13"/>
       <c r="D119" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110101</v>
+        <v>01110011</v>
       </c>
       <c r="E119" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="15"/>
@@ -6061,17 +6143,17 @@
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="13"/>
       <c r="D120" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110110</v>
+        <v>01110100</v>
       </c>
       <c r="E120" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="15"/>
@@ -6087,17 +6169,17 @@
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="13"/>
       <c r="D121" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01110111</v>
+        <v>01110101</v>
       </c>
       <c r="E121" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="15"/>
@@ -6113,17 +6195,17 @@
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="13"/>
       <c r="D122" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111000</v>
+        <v>01110110</v>
       </c>
       <c r="E122" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="15"/>
@@ -6139,17 +6221,17 @@
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="13"/>
       <c r="D123" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111001</v>
+        <v>01110111</v>
       </c>
       <c r="E123" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="15"/>
@@ -6165,17 +6247,17 @@
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="13"/>
       <c r="D124" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111010</v>
+        <v>01111000</v>
       </c>
       <c r="E124" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>7A</v>
+        <v>78</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="15"/>
@@ -6191,17 +6273,17 @@
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="13"/>
       <c r="D125" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111011</v>
+        <v>01111001</v>
       </c>
       <c r="E125" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>7B</v>
+        <v>79</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="15"/>
@@ -6217,17 +6299,17 @@
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="13"/>
       <c r="D126" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111100</v>
+        <v>01111010</v>
       </c>
       <c r="E126" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>7C</v>
+        <v>7A</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="15"/>
@@ -6243,17 +6325,17 @@
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="13"/>
       <c r="D127" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111101</v>
+        <v>01111011</v>
       </c>
       <c r="E127" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>7D</v>
+        <v>7B</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="15"/>
@@ -6269,17 +6351,17 @@
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="13"/>
       <c r="D128" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111110</v>
+        <v>01111100</v>
       </c>
       <c r="E128" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>7E</v>
+        <v>7C</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="15"/>
@@ -6295,17 +6377,17 @@
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <f t="shared" si="5"/>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="13"/>
       <c r="D129" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>01111111</v>
+        <v>01111101</v>
       </c>
       <c r="E129" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>7F</v>
+        <v>7D</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="15"/>
@@ -6321,224 +6403,176 @@
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <f t="shared" si="5"/>
-        <v>128</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" s="13">
-        <v>1</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="13"/>
       <c r="D130" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>01111110</v>
       </c>
       <c r="E130" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H130" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I130" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J130" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K130" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L130" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M130" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N130" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O130" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>7E</v>
+      </c>
+      <c r="F130" s="12"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
+      <c r="O130" s="18"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <f t="shared" si="5"/>
-        <v>129</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C131" s="13">
-        <v>1</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B131" s="10"/>
+      <c r="C131" s="13"/>
       <c r="D131" s="8" t="str">
-        <f t="shared" ref="D131:D194" si="6">DEC2BIN($A131, 8)</f>
-        <v>10000001</v>
+        <f t="shared" si="3"/>
+        <v>01111111</v>
       </c>
       <c r="E131" s="8" t="str">
-        <f t="shared" ref="E131:E194" si="7">DEC2HEX($A131, 2)</f>
-        <v>81</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I131" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J131" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K131" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L131" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M131" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N131" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O131" s="18" t="s">
-        <v>74</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>7F</v>
+      </c>
+      <c r="F131" s="12"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
-        <f t="shared" ref="A132:A195" si="8" xml:space="preserve"> A131 + 1</f>
-        <v>130</v>
+        <f t="shared" si="5"/>
+        <v>128</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" s="13">
         <v>1</v>
       </c>
       <c r="D132" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="E132" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L132" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O132" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="13">
+        <v>1</v>
+      </c>
+      <c r="D133" s="8" t="str">
+        <f t="shared" ref="D133:D196" si="6">DEC2BIN($A133, 8)</f>
+        <v>10000001</v>
+      </c>
+      <c r="E133" s="8" t="str">
+        <f t="shared" ref="E133:E196" si="7">DEC2HEX($A133, 2)</f>
+        <v>81</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H133" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J133" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K133" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M133" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N133" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O133" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <f t="shared" ref="A134:A197" si="8" xml:space="preserve"> A133 + 1</f>
+        <v>130</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="13">
+        <v>1</v>
+      </c>
+      <c r="D134" s="8" t="str">
         <f t="shared" si="6"/>
         <v>10000010</v>
       </c>
-      <c r="E132" s="8" t="str">
+      <c r="E134" s="8" t="str">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F134" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H132" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I132" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J132" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K132" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L132" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M132" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N132" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O132" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
-        <f t="shared" si="8"/>
-        <v>131</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133" s="13">
-        <v>1</v>
-      </c>
-      <c r="D133" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>10000011</v>
-      </c>
-      <c r="E133" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I133" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J133" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K133" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L133" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M133" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N133" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O133" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
-        <f t="shared" si="8"/>
-        <v>132</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C134" s="13">
-        <v>1</v>
-      </c>
-      <c r="D134" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>10000100</v>
-      </c>
-      <c r="E134" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="G134" s="15" t="s">
         <v>55</v>
@@ -6562,7 +6596,7 @@
         <v>74</v>
       </c>
       <c r="N134" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O134" s="18" t="s">
         <v>74</v>
@@ -6571,27 +6605,27 @@
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <f t="shared" si="8"/>
-        <v>133</v>
-      </c>
-      <c r="B135" s="31" t="s">
-        <v>103</v>
+        <v>131</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="C135" s="13">
         <v>1</v>
       </c>
       <c r="D135" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10000101</v>
+        <v>10000011</v>
       </c>
       <c r="E135" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="H135" s="18" t="s">
         <v>74</v>
@@ -6615,15 +6649,15 @@
         <v>74</v>
       </c>
       <c r="O135" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <f t="shared" si="8"/>
-        <v>134</v>
-      </c>
-      <c r="B136" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C136" s="13">
@@ -6631,14 +6665,14 @@
       </c>
       <c r="D136" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10000110</v>
+        <v>10000100</v>
       </c>
       <c r="E136" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>55</v>
@@ -6671,9 +6705,9 @@
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <f t="shared" si="8"/>
-        <v>135</v>
-      </c>
-      <c r="B137" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="13">
@@ -6681,14 +6715,14 @@
       </c>
       <c r="D137" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10000111</v>
+        <v>10000101</v>
       </c>
       <c r="E137" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G137" s="15" t="s">
         <v>55</v>
@@ -6721,24 +6755,24 @@
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <f t="shared" si="8"/>
-        <v>136</v>
-      </c>
-      <c r="B138" s="25" t="s">
-        <v>42</v>
+        <v>134</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C138" s="13">
         <v>1</v>
       </c>
-      <c r="D138" s="22" t="str">
+      <c r="D138" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10001000</v>
-      </c>
-      <c r="E138" s="22" t="str">
+        <v>10000110</v>
+      </c>
+      <c r="E138" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="G138" s="15" t="s">
         <v>55</v>
@@ -6756,7 +6790,7 @@
         <v>74</v>
       </c>
       <c r="L138" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M138" s="18" t="s">
         <v>74</v>
@@ -6771,27 +6805,27 @@
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <f t="shared" si="8"/>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="C139" s="13">
         <v>1</v>
       </c>
-      <c r="D139" s="22" t="str">
+      <c r="D139" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10001001</v>
-      </c>
-      <c r="E139" s="22" t="str">
+        <v>10000111</v>
+      </c>
+      <c r="E139" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>55</v>
+        <v>243</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="H139" s="18" t="s">
         <v>74</v>
@@ -6809,7 +6843,7 @@
         <v>74</v>
       </c>
       <c r="M139" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N139" s="18" t="s">
         <v>74</v>
@@ -6821,24 +6855,24 @@
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <f t="shared" si="8"/>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C140" s="13">
         <v>1</v>
       </c>
       <c r="D140" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>10001010</v>
+        <v>10001000</v>
       </c>
       <c r="E140" s="22" t="str">
         <f t="shared" si="7"/>
-        <v>8A</v>
+        <v>88</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G140" s="15" t="s">
         <v>55</v>
@@ -6856,13 +6890,13 @@
         <v>74</v>
       </c>
       <c r="L140" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M140" s="18" t="s">
         <v>74</v>
       </c>
       <c r="N140" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O140" s="18" t="s">
         <v>74</v>
@@ -6871,27 +6905,27 @@
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <f t="shared" si="8"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C141" s="13">
         <v>1</v>
       </c>
       <c r="D141" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>10001011</v>
+        <v>10001001</v>
       </c>
       <c r="E141" s="22" t="str">
         <f t="shared" si="7"/>
-        <v>8B</v>
+        <v>89</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H141" s="18" t="s">
         <v>74</v>
@@ -6909,36 +6943,36 @@
         <v>74</v>
       </c>
       <c r="M141" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N141" s="18" t="s">
         <v>74</v>
       </c>
       <c r="O141" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <f t="shared" si="8"/>
-        <v>140</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>103</v>
+        <v>138</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="C142" s="13">
         <v>1</v>
       </c>
-      <c r="D142" s="8" t="str">
+      <c r="D142" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>10001100</v>
-      </c>
-      <c r="E142" s="8" t="str">
+        <v>10001010</v>
+      </c>
+      <c r="E142" s="22" t="str">
         <f t="shared" si="7"/>
-        <v>8C</v>
+        <v>8A</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="G142" s="15" t="s">
         <v>55</v>
@@ -6962,7 +6996,7 @@
         <v>74</v>
       </c>
       <c r="N142" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O142" s="18" t="s">
         <v>74</v>
@@ -6971,27 +7005,27 @@
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <f t="shared" si="8"/>
-        <v>141</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>103</v>
+        <v>139</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C143" s="13">
         <v>1</v>
       </c>
-      <c r="D143" s="8" t="str">
+      <c r="D143" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>10001101</v>
-      </c>
-      <c r="E143" s="8" t="str">
+        <v>10001011</v>
+      </c>
+      <c r="E143" s="22" t="str">
         <f t="shared" si="7"/>
-        <v>8D</v>
+        <v>8B</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H143" s="18" t="s">
         <v>74</v>
@@ -7015,15 +7049,15 @@
         <v>74</v>
       </c>
       <c r="O143" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <f t="shared" si="8"/>
-        <v>142</v>
-      </c>
-      <c r="B144" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C144" s="13">
@@ -7031,14 +7065,14 @@
       </c>
       <c r="D144" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10001110</v>
+        <v>10001100</v>
       </c>
       <c r="E144" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>8E</v>
+        <v>8C</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>55</v>
@@ -7071,9 +7105,9 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <f t="shared" si="8"/>
-        <v>143</v>
-      </c>
-      <c r="B145" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C145" s="13">
@@ -7081,14 +7115,14 @@
       </c>
       <c r="D145" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10001111</v>
+        <v>10001101</v>
       </c>
       <c r="E145" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>8F</v>
+        <v>8D</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>55</v>
@@ -7121,27 +7155,27 @@
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>90</v>
+        <v>142</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C146" s="13">
         <v>1</v>
       </c>
-      <c r="D146" s="22" t="str">
+      <c r="D146" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10010000</v>
-      </c>
-      <c r="E146" s="22" t="str">
+        <v>10001110</v>
+      </c>
+      <c r="E146" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>8E</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G146" s="22" t="s">
-        <v>74</v>
+        <v>133</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H146" s="18" t="s">
         <v>74</v>
@@ -7171,26 +7205,26 @@
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <f t="shared" si="8"/>
-        <v>145</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>92</v>
+        <v>143</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="C147" s="13">
         <v>1</v>
       </c>
-      <c r="D147" s="22" t="str">
+      <c r="D147" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10010001</v>
-      </c>
-      <c r="E147" s="22" t="str">
+        <v>10001111</v>
+      </c>
+      <c r="E147" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>8F</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G147" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G147" s="31" t="s">
         <v>74</v>
       </c>
       <c r="H147" s="18" t="s">
@@ -7206,84 +7240,132 @@
         <v>74</v>
       </c>
       <c r="L147" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M147" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N147" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O147" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <f t="shared" si="8"/>
-        <v>146</v>
-      </c>
-      <c r="B148" s="10"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="8" t="str">
+        <v>144</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148" s="13">
+        <v>1</v>
+      </c>
+      <c r="D148" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>10010010</v>
-      </c>
-      <c r="E148" s="8" t="str">
+        <v>10010000</v>
+      </c>
+      <c r="E148" s="22" t="str">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J148" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K148" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L148" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M148" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N148" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O148" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <f t="shared" si="8"/>
-        <v>147</v>
-      </c>
-      <c r="B149" s="10"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="8" t="str">
+        <v>145</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="13">
+        <v>1</v>
+      </c>
+      <c r="D149" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>10010011</v>
-      </c>
-      <c r="E149" s="8" t="str">
+        <v>10010001</v>
+      </c>
+      <c r="E149" s="22" t="str">
         <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J149" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K149" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L149" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M149" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N149" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O149" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <f t="shared" si="8"/>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="13"/>
       <c r="D150" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10010100</v>
+        <v>10010010</v>
       </c>
       <c r="E150" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="15"/>
@@ -7299,17 +7381,17 @@
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <f t="shared" si="8"/>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" s="10"/>
       <c r="C151" s="13"/>
       <c r="D151" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10010101</v>
+        <v>10010011</v>
       </c>
       <c r="E151" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="15"/>
@@ -7325,17 +7407,17 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="13"/>
       <c r="D152" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10010110</v>
+        <v>10010100</v>
       </c>
       <c r="E152" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="15"/>
@@ -7351,17 +7433,17 @@
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <f t="shared" si="8"/>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="13"/>
       <c r="D153" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10010111</v>
+        <v>10010101</v>
       </c>
       <c r="E153" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="15"/>
@@ -7377,17 +7459,17 @@
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="13"/>
       <c r="D154" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011000</v>
+        <v>10010110</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="15"/>
@@ -7403,17 +7485,17 @@
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <f t="shared" si="8"/>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="13"/>
       <c r="D155" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011001</v>
+        <v>10010111</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="15"/>
@@ -7429,17 +7511,17 @@
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="13"/>
       <c r="D156" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011010</v>
+        <v>10011000</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>9A</v>
+        <v>98</v>
       </c>
       <c r="F156" s="12"/>
       <c r="G156" s="15"/>
@@ -7455,17 +7537,17 @@
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="13"/>
       <c r="D157" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011011</v>
+        <v>10011001</v>
       </c>
       <c r="E157" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>9B</v>
+        <v>99</v>
       </c>
       <c r="F157" s="12"/>
       <c r="G157" s="15"/>
@@ -7481,17 +7563,17 @@
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <f t="shared" si="8"/>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="13"/>
       <c r="D158" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011100</v>
+        <v>10011010</v>
       </c>
       <c r="E158" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>9C</v>
+        <v>9A</v>
       </c>
       <c r="F158" s="12"/>
       <c r="G158" s="15"/>
@@ -7507,17 +7589,17 @@
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <f t="shared" si="8"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="13"/>
       <c r="D159" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011101</v>
+        <v>10011011</v>
       </c>
       <c r="E159" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>9D</v>
+        <v>9B</v>
       </c>
       <c r="F159" s="12"/>
       <c r="G159" s="15"/>
@@ -7533,17 +7615,17 @@
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <f t="shared" si="8"/>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="13"/>
       <c r="D160" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011110</v>
+        <v>10011100</v>
       </c>
       <c r="E160" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>9E</v>
+        <v>9C</v>
       </c>
       <c r="F160" s="12"/>
       <c r="G160" s="15"/>
@@ -7559,17 +7641,17 @@
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <f t="shared" si="8"/>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="13"/>
       <c r="D161" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10011111</v>
+        <v>10011101</v>
       </c>
       <c r="E161" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>9F</v>
+        <v>9D</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="15"/>
@@ -7585,124 +7667,76 @@
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C162" s="13">
-        <v>2</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B162" s="10"/>
+      <c r="C162" s="13"/>
       <c r="D162" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100000</v>
+        <v>10011110</v>
       </c>
       <c r="E162" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A0</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H162" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I162" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J162" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K162" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L162" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M162" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N162" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O162" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>9E</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="18"/>
+      <c r="O162" s="18"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <f t="shared" si="8"/>
-        <v>161</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C163" s="13">
-        <v>2</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B163" s="10"/>
+      <c r="C163" s="13"/>
       <c r="D163" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100001</v>
+        <v>10011111</v>
       </c>
       <c r="E163" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A1</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G163" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I163" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J163" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K163" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L163" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M163" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N163" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O163" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>9F</v>
+      </c>
+      <c r="F163" s="12"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
+      <c r="N163" s="18"/>
+      <c r="O163" s="18"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <f t="shared" si="8"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C164" s="13">
         <v>2</v>
       </c>
       <c r="D164" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100010</v>
+        <v>10100000</v>
       </c>
       <c r="E164" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A2</v>
+        <v>A0</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G164" s="22" t="s">
         <v>74</v>
@@ -7735,21 +7769,21 @@
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <f t="shared" si="8"/>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C165" s="13">
         <v>2</v>
       </c>
       <c r="D165" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100011</v>
+        <v>10100001</v>
       </c>
       <c r="E165" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A3</v>
+        <v>A1</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>148</v>
@@ -7785,27 +7819,27 @@
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <f t="shared" si="8"/>
-        <v>164</v>
-      </c>
-      <c r="B166" s="31" t="s">
-        <v>64</v>
+        <v>162</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C166" s="13">
         <v>2</v>
       </c>
       <c r="D166" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100100</v>
+        <v>10100010</v>
       </c>
       <c r="E166" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A4</v>
+        <v>A2</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G166" s="15" t="s">
-        <v>55</v>
+        <v>140</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H166" s="18" t="s">
         <v>74</v>
@@ -7835,27 +7869,27 @@
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <f t="shared" si="8"/>
-        <v>165</v>
-      </c>
-      <c r="B167" s="31" t="s">
-        <v>64</v>
+        <v>163</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="C167" s="13">
         <v>2</v>
       </c>
       <c r="D167" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100101</v>
+        <v>10100011</v>
       </c>
       <c r="E167" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A5</v>
+        <v>A3</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>55</v>
+        <v>144</v>
+      </c>
+      <c r="G167" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H167" s="18" t="s">
         <v>74</v>
@@ -7885,9 +7919,9 @@
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <f t="shared" si="8"/>
-        <v>166</v>
-      </c>
-      <c r="B168" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C168" s="13">
@@ -7895,14 +7929,14 @@
       </c>
       <c r="D168" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100110</v>
+        <v>10100100</v>
       </c>
       <c r="E168" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A6</v>
+        <v>A4</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G168" s="15" t="s">
         <v>55</v>
@@ -7935,9 +7969,9 @@
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <f t="shared" si="8"/>
-        <v>167</v>
-      </c>
-      <c r="B169" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C169" s="13">
@@ -7945,14 +7979,14 @@
       </c>
       <c r="D169" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10100111</v>
+        <v>10100101</v>
       </c>
       <c r="E169" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A7</v>
+        <v>A5</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G169" s="15" t="s">
         <v>55</v>
@@ -7985,27 +8019,27 @@
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>139</v>
+        <v>166</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="C170" s="13">
         <v>2</v>
       </c>
       <c r="D170" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101000</v>
+        <v>10100110</v>
       </c>
       <c r="E170" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A8</v>
+        <v>A6</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>74</v>
+        <v>152</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H170" s="18" t="s">
         <v>74</v>
@@ -8035,27 +8069,27 @@
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <f t="shared" si="8"/>
-        <v>169</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="C171" s="13">
         <v>2</v>
       </c>
       <c r="D171" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101001</v>
+        <v>10100111</v>
       </c>
       <c r="E171" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>A9</v>
+        <v>A7</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G171" s="22" t="s">
-        <v>74</v>
+        <v>152</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H171" s="18" t="s">
         <v>74</v>
@@ -8085,24 +8119,24 @@
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <f t="shared" si="8"/>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C172" s="13">
         <v>2</v>
       </c>
       <c r="D172" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101010</v>
+        <v>10101000</v>
       </c>
       <c r="E172" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>AA</v>
+        <v>A8</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G172" s="22" t="s">
         <v>74</v>
@@ -8135,24 +8169,24 @@
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <f t="shared" si="8"/>
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C173" s="13">
         <v>2</v>
       </c>
       <c r="D173" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101011</v>
+        <v>10101001</v>
       </c>
       <c r="E173" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>AB</v>
+        <v>A9</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G173" s="22" t="s">
         <v>74</v>
@@ -8185,27 +8219,27 @@
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <f t="shared" si="8"/>
-        <v>172</v>
-      </c>
-      <c r="B174" s="31" t="s">
-        <v>64</v>
+        <v>170</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C174" s="13">
         <v>2</v>
       </c>
       <c r="D174" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101100</v>
+        <v>10101010</v>
       </c>
       <c r="E174" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>AC</v>
+        <v>AA</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G174" s="15" t="s">
-        <v>55</v>
+        <v>143</v>
+      </c>
+      <c r="G174" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H174" s="18" t="s">
         <v>74</v>
@@ -8235,27 +8269,27 @@
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <f t="shared" si="8"/>
-        <v>173</v>
-      </c>
-      <c r="B175" s="31" t="s">
-        <v>64</v>
+        <v>171</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="C175" s="13">
         <v>2</v>
       </c>
       <c r="D175" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101101</v>
+        <v>10101011</v>
       </c>
       <c r="E175" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>AD</v>
+        <v>AB</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G175" s="15" t="s">
-        <v>55</v>
+        <v>142</v>
+      </c>
+      <c r="G175" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H175" s="18" t="s">
         <v>74</v>
@@ -8285,9 +8319,9 @@
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <f t="shared" si="8"/>
-        <v>174</v>
-      </c>
-      <c r="B176" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="13">
@@ -8295,14 +8329,14 @@
       </c>
       <c r="D176" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101110</v>
+        <v>10101100</v>
       </c>
       <c r="E176" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>AE</v>
+        <v>AC</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G176" s="15" t="s">
         <v>55</v>
@@ -8335,9 +8369,9 @@
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <f t="shared" si="8"/>
-        <v>175</v>
-      </c>
-      <c r="B177" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C177" s="13">
@@ -8345,14 +8379,14 @@
       </c>
       <c r="D177" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10101111</v>
+        <v>10101101</v>
       </c>
       <c r="E177" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>AF</v>
+        <v>AD</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G177" s="15" t="s">
         <v>55</v>
@@ -8385,69 +8419,117 @@
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <f t="shared" si="8"/>
-        <v>176</v>
-      </c>
-      <c r="B178" s="10"/>
-      <c r="C178" s="13"/>
+        <v>174</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C178" s="13">
+        <v>2</v>
+      </c>
       <c r="D178" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110000</v>
+        <v>10101110</v>
       </c>
       <c r="E178" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B0</v>
-      </c>
-      <c r="F178" s="12"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="18"/>
+        <v>AE</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G178" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H178" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J178" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K178" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L178" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M178" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N178" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O178" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <f t="shared" si="8"/>
-        <v>177</v>
-      </c>
-      <c r="B179" s="10"/>
-      <c r="C179" s="13"/>
+        <v>175</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C179" s="13">
+        <v>2</v>
+      </c>
       <c r="D179" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110001</v>
+        <v>10101111</v>
       </c>
       <c r="E179" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B1</v>
-      </c>
-      <c r="F179" s="12"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="18"/>
+        <v>AF</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G179" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H179" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I179" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J179" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K179" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L179" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M179" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N179" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O179" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <f t="shared" si="8"/>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="13"/>
       <c r="D180" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110010</v>
+        <v>10110000</v>
       </c>
       <c r="E180" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B2</v>
+        <v>B0</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="15"/>
@@ -8463,17 +8545,17 @@
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <f t="shared" si="8"/>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="13"/>
       <c r="D181" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110011</v>
+        <v>10110001</v>
       </c>
       <c r="E181" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B3</v>
+        <v>B1</v>
       </c>
       <c r="F181" s="12"/>
       <c r="G181" s="15"/>
@@ -8489,17 +8571,17 @@
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="13"/>
       <c r="D182" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110100</v>
+        <v>10110010</v>
       </c>
       <c r="E182" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B4</v>
+        <v>B2</v>
       </c>
       <c r="F182" s="12"/>
       <c r="G182" s="15"/>
@@ -8515,17 +8597,17 @@
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <f t="shared" si="8"/>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="13"/>
       <c r="D183" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110101</v>
+        <v>10110011</v>
       </c>
       <c r="E183" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B5</v>
+        <v>B3</v>
       </c>
       <c r="F183" s="12"/>
       <c r="G183" s="15"/>
@@ -8541,17 +8623,17 @@
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="13"/>
       <c r="D184" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110110</v>
+        <v>10110100</v>
       </c>
       <c r="E184" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B6</v>
+        <v>B4</v>
       </c>
       <c r="F184" s="12"/>
       <c r="G184" s="15"/>
@@ -8567,17 +8649,17 @@
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B185" s="10"/>
       <c r="C185" s="13"/>
       <c r="D185" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10110111</v>
+        <v>10110101</v>
       </c>
       <c r="E185" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B7</v>
+        <v>B5</v>
       </c>
       <c r="F185" s="12"/>
       <c r="G185" s="15"/>
@@ -8593,17 +8675,17 @@
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <f t="shared" si="8"/>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="13"/>
       <c r="D186" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111000</v>
+        <v>10110110</v>
       </c>
       <c r="E186" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B8</v>
+        <v>B6</v>
       </c>
       <c r="F186" s="12"/>
       <c r="G186" s="15"/>
@@ -8619,17 +8701,17 @@
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <f t="shared" si="8"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="13"/>
       <c r="D187" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111001</v>
+        <v>10110111</v>
       </c>
       <c r="E187" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>B9</v>
+        <v>B7</v>
       </c>
       <c r="F187" s="12"/>
       <c r="G187" s="15"/>
@@ -8645,17 +8727,17 @@
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <f t="shared" si="8"/>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188" s="10"/>
       <c r="C188" s="13"/>
       <c r="D188" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111010</v>
+        <v>10111000</v>
       </c>
       <c r="E188" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>BA</v>
+        <v>B8</v>
       </c>
       <c r="F188" s="12"/>
       <c r="G188" s="15"/>
@@ -8671,17 +8753,17 @@
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <f t="shared" si="8"/>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="13"/>
       <c r="D189" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111011</v>
+        <v>10111001</v>
       </c>
       <c r="E189" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>BB</v>
+        <v>B9</v>
       </c>
       <c r="F189" s="12"/>
       <c r="G189" s="15"/>
@@ -8697,17 +8779,17 @@
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <f t="shared" si="8"/>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="13"/>
       <c r="D190" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111100</v>
+        <v>10111010</v>
       </c>
       <c r="E190" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>BC</v>
+        <v>BA</v>
       </c>
       <c r="F190" s="12"/>
       <c r="G190" s="15"/>
@@ -8723,17 +8805,17 @@
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <f t="shared" si="8"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="13"/>
       <c r="D191" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111101</v>
+        <v>10111011</v>
       </c>
       <c r="E191" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>BD</v>
+        <v>BB</v>
       </c>
       <c r="F191" s="12"/>
       <c r="G191" s="15"/>
@@ -8749,17 +8831,17 @@
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <f t="shared" si="8"/>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="13"/>
       <c r="D192" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111110</v>
+        <v>10111100</v>
       </c>
       <c r="E192" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>BE</v>
+        <v>BC</v>
       </c>
       <c r="F192" s="12"/>
       <c r="G192" s="15"/>
@@ -8775,17 +8857,17 @@
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <f t="shared" si="8"/>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="13"/>
       <c r="D193" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>10111111</v>
+        <v>10111101</v>
       </c>
       <c r="E193" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>BF</v>
+        <v>BD</v>
       </c>
       <c r="F193" s="12"/>
       <c r="G193" s="15"/>
@@ -8801,17 +8883,17 @@
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <f t="shared" si="8"/>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="13"/>
       <c r="D194" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>11000000</v>
+        <v>10111110</v>
       </c>
       <c r="E194" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>C0</v>
+        <v>BE</v>
       </c>
       <c r="F194" s="12"/>
       <c r="G194" s="15"/>
@@ -8827,17 +8909,17 @@
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <f t="shared" si="8"/>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="13"/>
       <c r="D195" s="8" t="str">
-        <f t="shared" ref="D195:D257" si="9">DEC2BIN($A195, 8)</f>
-        <v>11000001</v>
+        <f t="shared" si="6"/>
+        <v>10111111</v>
       </c>
       <c r="E195" s="8" t="str">
-        <f t="shared" ref="E195:E257" si="10">DEC2HEX($A195, 2)</f>
-        <v>C1</v>
+        <f t="shared" si="7"/>
+        <v>BF</v>
       </c>
       <c r="F195" s="12"/>
       <c r="G195" s="15"/>
@@ -8852,18 +8934,18 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
-        <f t="shared" ref="A196:A257" si="11" xml:space="preserve"> A195 + 1</f>
-        <v>194</v>
+        <f t="shared" si="8"/>
+        <v>192</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="13"/>
       <c r="D196" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>11000010</v>
+        <f t="shared" si="6"/>
+        <v>11000000</v>
       </c>
       <c r="E196" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>C2</v>
+        <f t="shared" si="7"/>
+        <v>C0</v>
       </c>
       <c r="F196" s="12"/>
       <c r="G196" s="15"/>
@@ -8878,18 +8960,18 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
-        <f t="shared" si="11"/>
-        <v>195</v>
+        <f t="shared" si="8"/>
+        <v>193</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="13"/>
       <c r="D197" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>11000011</v>
+        <f t="shared" ref="D197:D259" si="9">DEC2BIN($A197, 8)</f>
+        <v>11000001</v>
       </c>
       <c r="E197" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>C3</v>
+        <f t="shared" ref="E197:E259" si="10">DEC2HEX($A197, 2)</f>
+        <v>C1</v>
       </c>
       <c r="F197" s="12"/>
       <c r="G197" s="15"/>
@@ -8904,18 +8986,18 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
-        <f t="shared" si="11"/>
-        <v>196</v>
+        <f t="shared" ref="A198:A259" si="11" xml:space="preserve"> A197 + 1</f>
+        <v>194</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="13"/>
       <c r="D198" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11000100</v>
+        <v>11000010</v>
       </c>
       <c r="E198" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>C4</v>
+        <v>C2</v>
       </c>
       <c r="F198" s="12"/>
       <c r="G198" s="15"/>
@@ -8931,17 +9013,17 @@
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <f t="shared" si="11"/>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="13"/>
       <c r="D199" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11000101</v>
+        <v>11000011</v>
       </c>
       <c r="E199" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>C5</v>
+        <v>C3</v>
       </c>
       <c r="F199" s="12"/>
       <c r="G199" s="15"/>
@@ -8957,17 +9039,17 @@
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <f t="shared" si="11"/>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="13"/>
       <c r="D200" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11000110</v>
+        <v>11000100</v>
       </c>
       <c r="E200" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>C6</v>
+        <v>C4</v>
       </c>
       <c r="F200" s="12"/>
       <c r="G200" s="15"/>
@@ -8983,17 +9065,17 @@
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <f t="shared" si="11"/>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B201" s="10"/>
       <c r="C201" s="13"/>
       <c r="D201" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11000111</v>
+        <v>11000101</v>
       </c>
       <c r="E201" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>C7</v>
+        <v>C5</v>
       </c>
       <c r="F201" s="12"/>
       <c r="G201" s="15"/>
@@ -9009,17 +9091,17 @@
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="13"/>
       <c r="D202" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001000</v>
+        <v>11000110</v>
       </c>
       <c r="E202" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>C8</v>
+        <v>C6</v>
       </c>
       <c r="F202" s="12"/>
       <c r="G202" s="15"/>
@@ -9035,17 +9117,17 @@
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <f t="shared" si="11"/>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="13"/>
       <c r="D203" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001001</v>
+        <v>11000111</v>
       </c>
       <c r="E203" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>C9</v>
+        <v>C7</v>
       </c>
       <c r="F203" s="12"/>
       <c r="G203" s="15"/>
@@ -9061,17 +9143,17 @@
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <f t="shared" si="11"/>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="13"/>
       <c r="D204" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001010</v>
+        <v>11001000</v>
       </c>
       <c r="E204" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>CA</v>
+        <v>C8</v>
       </c>
       <c r="F204" s="12"/>
       <c r="G204" s="15"/>
@@ -9087,17 +9169,17 @@
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <f t="shared" si="11"/>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="13"/>
       <c r="D205" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001011</v>
+        <v>11001001</v>
       </c>
       <c r="E205" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>CB</v>
+        <v>C9</v>
       </c>
       <c r="F205" s="12"/>
       <c r="G205" s="15"/>
@@ -9113,17 +9195,17 @@
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <f t="shared" si="11"/>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="13"/>
       <c r="D206" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001100</v>
+        <v>11001010</v>
       </c>
       <c r="E206" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>CC</v>
+        <v>CA</v>
       </c>
       <c r="F206" s="12"/>
       <c r="G206" s="15"/>
@@ -9139,17 +9221,17 @@
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <f t="shared" si="11"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="13"/>
       <c r="D207" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001101</v>
+        <v>11001011</v>
       </c>
       <c r="E207" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>CD</v>
+        <v>CB</v>
       </c>
       <c r="F207" s="12"/>
       <c r="G207" s="15"/>
@@ -9165,17 +9247,17 @@
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <f t="shared" si="11"/>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="13"/>
       <c r="D208" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001110</v>
+        <v>11001100</v>
       </c>
       <c r="E208" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>CE</v>
+        <v>CC</v>
       </c>
       <c r="F208" s="12"/>
       <c r="G208" s="15"/>
@@ -9191,17 +9273,17 @@
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <f t="shared" si="11"/>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="13"/>
       <c r="D209" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11001111</v>
+        <v>11001101</v>
       </c>
       <c r="E209" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>CF</v>
+        <v>CD</v>
       </c>
       <c r="F209" s="12"/>
       <c r="G209" s="15"/>
@@ -9217,17 +9299,17 @@
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <f t="shared" si="11"/>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="13"/>
       <c r="D210" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010000</v>
+        <v>11001110</v>
       </c>
       <c r="E210" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D0</v>
+        <v>CE</v>
       </c>
       <c r="F210" s="12"/>
       <c r="G210" s="15"/>
@@ -9243,17 +9325,17 @@
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <f t="shared" si="11"/>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="13"/>
       <c r="D211" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010001</v>
+        <v>11001111</v>
       </c>
       <c r="E211" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D1</v>
+        <v>CF</v>
       </c>
       <c r="F211" s="12"/>
       <c r="G211" s="15"/>
@@ -9269,17 +9351,17 @@
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <f t="shared" si="11"/>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="13"/>
       <c r="D212" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010010</v>
+        <v>11010000</v>
       </c>
       <c r="E212" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D2</v>
+        <v>D0</v>
       </c>
       <c r="F212" s="12"/>
       <c r="G212" s="15"/>
@@ -9295,17 +9377,17 @@
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <f t="shared" si="11"/>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B213" s="10"/>
       <c r="C213" s="13"/>
       <c r="D213" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010011</v>
+        <v>11010001</v>
       </c>
       <c r="E213" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D3</v>
+        <v>D1</v>
       </c>
       <c r="F213" s="12"/>
       <c r="G213" s="15"/>
@@ -9321,17 +9403,17 @@
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <f t="shared" si="11"/>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="13"/>
       <c r="D214" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010100</v>
+        <v>11010010</v>
       </c>
       <c r="E214" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D4</v>
+        <v>D2</v>
       </c>
       <c r="F214" s="12"/>
       <c r="G214" s="15"/>
@@ -9347,17 +9429,17 @@
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <f t="shared" si="11"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B215" s="10"/>
       <c r="C215" s="13"/>
       <c r="D215" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010101</v>
+        <v>11010011</v>
       </c>
       <c r="E215" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D5</v>
+        <v>D3</v>
       </c>
       <c r="F215" s="12"/>
       <c r="G215" s="15"/>
@@ -9373,17 +9455,17 @@
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <f t="shared" si="11"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="13"/>
       <c r="D216" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010110</v>
+        <v>11010100</v>
       </c>
       <c r="E216" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D6</v>
+        <v>D4</v>
       </c>
       <c r="F216" s="12"/>
       <c r="G216" s="15"/>
@@ -9399,17 +9481,17 @@
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <f t="shared" si="11"/>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="13"/>
       <c r="D217" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11010111</v>
+        <v>11010101</v>
       </c>
       <c r="E217" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D7</v>
+        <v>D5</v>
       </c>
       <c r="F217" s="12"/>
       <c r="G217" s="15"/>
@@ -9425,17 +9507,17 @@
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <f t="shared" si="11"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="13"/>
       <c r="D218" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011000</v>
+        <v>11010110</v>
       </c>
       <c r="E218" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D8</v>
+        <v>D6</v>
       </c>
       <c r="F218" s="12"/>
       <c r="G218" s="15"/>
@@ -9451,17 +9533,17 @@
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <f t="shared" si="11"/>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="13"/>
       <c r="D219" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011001</v>
+        <v>11010111</v>
       </c>
       <c r="E219" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>D9</v>
+        <v>D7</v>
       </c>
       <c r="F219" s="12"/>
       <c r="G219" s="15"/>
@@ -9477,17 +9559,17 @@
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <f t="shared" si="11"/>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="13"/>
       <c r="D220" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011010</v>
+        <v>11011000</v>
       </c>
       <c r="E220" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>DA</v>
+        <v>D8</v>
       </c>
       <c r="F220" s="12"/>
       <c r="G220" s="15"/>
@@ -9503,17 +9585,17 @@
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <f t="shared" si="11"/>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="13"/>
       <c r="D221" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011011</v>
+        <v>11011001</v>
       </c>
       <c r="E221" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>DB</v>
+        <v>D9</v>
       </c>
       <c r="F221" s="12"/>
       <c r="G221" s="15"/>
@@ -9529,17 +9611,17 @@
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <f t="shared" si="11"/>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="13"/>
       <c r="D222" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011100</v>
+        <v>11011010</v>
       </c>
       <c r="E222" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>DC</v>
+        <v>DA</v>
       </c>
       <c r="F222" s="12"/>
       <c r="G222" s="15"/>
@@ -9555,17 +9637,17 @@
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <f t="shared" si="11"/>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="13"/>
       <c r="D223" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011101</v>
+        <v>11011011</v>
       </c>
       <c r="E223" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>DD</v>
+        <v>DB</v>
       </c>
       <c r="F223" s="12"/>
       <c r="G223" s="15"/>
@@ -9581,17 +9663,17 @@
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <f t="shared" si="11"/>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="13"/>
       <c r="D224" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011110</v>
+        <v>11011100</v>
       </c>
       <c r="E224" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>DE</v>
+        <v>DC</v>
       </c>
       <c r="F224" s="12"/>
       <c r="G224" s="15"/>
@@ -9607,17 +9689,17 @@
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <f t="shared" si="11"/>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="13"/>
       <c r="D225" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11011111</v>
+        <v>11011101</v>
       </c>
       <c r="E225" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>DF</v>
+        <v>DD</v>
       </c>
       <c r="F225" s="12"/>
       <c r="G225" s="15"/>
@@ -9633,17 +9715,17 @@
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <f t="shared" si="11"/>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B226" s="10"/>
       <c r="C226" s="13"/>
       <c r="D226" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100000</v>
+        <v>11011110</v>
       </c>
       <c r="E226" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E0</v>
+        <v>DE</v>
       </c>
       <c r="F226" s="12"/>
       <c r="G226" s="15"/>
@@ -9659,17 +9741,17 @@
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <f t="shared" si="11"/>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="13"/>
       <c r="D227" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100001</v>
+        <v>11011111</v>
       </c>
       <c r="E227" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E1</v>
+        <v>DF</v>
       </c>
       <c r="F227" s="12"/>
       <c r="G227" s="15"/>
@@ -9685,17 +9767,17 @@
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <f t="shared" si="11"/>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="13"/>
       <c r="D228" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100010</v>
+        <v>11100000</v>
       </c>
       <c r="E228" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E2</v>
+        <v>E0</v>
       </c>
       <c r="F228" s="12"/>
       <c r="G228" s="15"/>
@@ -9711,17 +9793,17 @@
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <f t="shared" si="11"/>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="13"/>
       <c r="D229" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100011</v>
+        <v>11100001</v>
       </c>
       <c r="E229" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E3</v>
+        <v>E1</v>
       </c>
       <c r="F229" s="12"/>
       <c r="G229" s="15"/>
@@ -9737,17 +9819,17 @@
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <f t="shared" si="11"/>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="13"/>
       <c r="D230" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100100</v>
+        <v>11100010</v>
       </c>
       <c r="E230" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E4</v>
+        <v>E2</v>
       </c>
       <c r="F230" s="12"/>
       <c r="G230" s="15"/>
@@ -9763,17 +9845,17 @@
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <f t="shared" si="11"/>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="13"/>
       <c r="D231" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100101</v>
+        <v>11100011</v>
       </c>
       <c r="E231" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E5</v>
+        <v>E3</v>
       </c>
       <c r="F231" s="12"/>
       <c r="G231" s="15"/>
@@ -9789,17 +9871,17 @@
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <f t="shared" si="11"/>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="13"/>
       <c r="D232" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100110</v>
+        <v>11100100</v>
       </c>
       <c r="E232" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E6</v>
+        <v>E4</v>
       </c>
       <c r="F232" s="12"/>
       <c r="G232" s="15"/>
@@ -9815,17 +9897,17 @@
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <f t="shared" si="11"/>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B233" s="10"/>
       <c r="C233" s="13"/>
       <c r="D233" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11100111</v>
+        <v>11100101</v>
       </c>
       <c r="E233" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E7</v>
+        <v>E5</v>
       </c>
       <c r="F233" s="12"/>
       <c r="G233" s="15"/>
@@ -9841,17 +9923,17 @@
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <f t="shared" si="11"/>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="13"/>
       <c r="D234" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101000</v>
+        <v>11100110</v>
       </c>
       <c r="E234" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E8</v>
+        <v>E6</v>
       </c>
       <c r="F234" s="12"/>
       <c r="G234" s="15"/>
@@ -9867,17 +9949,17 @@
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <f t="shared" si="11"/>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="13"/>
       <c r="D235" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101001</v>
+        <v>11100111</v>
       </c>
       <c r="E235" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>E9</v>
+        <v>E7</v>
       </c>
       <c r="F235" s="12"/>
       <c r="G235" s="15"/>
@@ -9893,17 +9975,17 @@
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <f t="shared" si="11"/>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="13"/>
       <c r="D236" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101010</v>
+        <v>11101000</v>
       </c>
       <c r="E236" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>EA</v>
+        <v>E8</v>
       </c>
       <c r="F236" s="12"/>
       <c r="G236" s="15"/>
@@ -9919,17 +10001,17 @@
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <f t="shared" si="11"/>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="13"/>
       <c r="D237" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101011</v>
+        <v>11101001</v>
       </c>
       <c r="E237" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>EB</v>
+        <v>E9</v>
       </c>
       <c r="F237" s="12"/>
       <c r="G237" s="15"/>
@@ -9945,17 +10027,17 @@
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <f t="shared" si="11"/>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B238" s="10"/>
       <c r="C238" s="13"/>
       <c r="D238" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101100</v>
+        <v>11101010</v>
       </c>
       <c r="E238" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>EC</v>
+        <v>EA</v>
       </c>
       <c r="F238" s="12"/>
       <c r="G238" s="15"/>
@@ -9971,17 +10053,17 @@
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="13"/>
       <c r="D239" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101101</v>
+        <v>11101011</v>
       </c>
       <c r="E239" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ED</v>
+        <v>EB</v>
       </c>
       <c r="F239" s="12"/>
       <c r="G239" s="15"/>
@@ -9997,17 +10079,17 @@
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <f t="shared" si="11"/>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B240" s="10"/>
       <c r="C240" s="13"/>
       <c r="D240" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101110</v>
+        <v>11101100</v>
       </c>
       <c r="E240" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>EE</v>
+        <v>EC</v>
       </c>
       <c r="F240" s="12"/>
       <c r="G240" s="15"/>
@@ -10023,17 +10105,17 @@
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <f t="shared" si="11"/>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="13"/>
       <c r="D241" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11101111</v>
+        <v>11101101</v>
       </c>
       <c r="E241" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>EF</v>
+        <v>ED</v>
       </c>
       <c r="F241" s="12"/>
       <c r="G241" s="15"/>
@@ -10049,70 +10131,46 @@
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <f t="shared" si="11"/>
-        <v>240</v>
-      </c>
-      <c r="B242" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C242" s="13">
-        <v>1</v>
-      </c>
-      <c r="D242" s="27" t="str">
+        <v>238</v>
+      </c>
+      <c r="B242" s="10"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11110000</v>
-      </c>
-      <c r="E242" s="27" t="str">
+        <v>11101110</v>
+      </c>
+      <c r="E242" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F0</v>
-      </c>
-      <c r="F242" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G242" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="H242" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I242" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J242" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K242" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L242" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M242" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N242" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O242" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>EE</v>
+      </c>
+      <c r="F242" s="12"/>
+      <c r="G242" s="15"/>
+      <c r="H242" s="18"/>
+      <c r="I242" s="18"/>
+      <c r="J242" s="18"/>
+      <c r="K242" s="18"/>
+      <c r="L242" s="18"/>
+      <c r="M242" s="18"/>
+      <c r="N242" s="18"/>
+      <c r="O242" s="18"/>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <f t="shared" si="11"/>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B243" s="10"/>
       <c r="C243" s="13"/>
       <c r="D243" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11110001</v>
+        <v>11101111</v>
       </c>
       <c r="E243" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F1</v>
+        <v>EF</v>
       </c>
       <c r="F243" s="12"/>
-      <c r="G243" s="8"/>
+      <c r="G243" s="15"/>
       <c r="H243" s="18"/>
       <c r="I243" s="18"/>
       <c r="J243" s="18"/>
@@ -10125,43 +10183,67 @@
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <f t="shared" si="11"/>
-        <v>242</v>
-      </c>
-      <c r="B244" s="10"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="8" t="str">
+        <v>240</v>
+      </c>
+      <c r="B244" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C244" s="13">
+        <v>1</v>
+      </c>
+      <c r="D244" s="27" t="str">
         <f t="shared" si="9"/>
-        <v>11110010</v>
-      </c>
-      <c r="E244" s="8" t="str">
+        <v>11110000</v>
+      </c>
+      <c r="E244" s="27" t="str">
         <f t="shared" si="10"/>
-        <v>F2</v>
-      </c>
-      <c r="F244" s="12"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="18"/>
-      <c r="I244" s="18"/>
-      <c r="J244" s="18"/>
-      <c r="K244" s="18"/>
-      <c r="L244" s="18"/>
-      <c r="M244" s="18"/>
-      <c r="N244" s="18"/>
-      <c r="O244" s="18"/>
+        <v>F0</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G244" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H244" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I244" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J244" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K244" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L244" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M244" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N244" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O244" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <f t="shared" si="11"/>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="13"/>
       <c r="D245" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11110011</v>
+        <v>11110001</v>
       </c>
       <c r="E245" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F3</v>
+        <v>F1</v>
       </c>
       <c r="F245" s="12"/>
       <c r="G245" s="8"/>
@@ -10177,20 +10259,20 @@
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <f t="shared" si="11"/>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="13"/>
       <c r="D246" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11110100</v>
+        <v>11110010</v>
       </c>
       <c r="E246" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="F246" s="12"/>
-      <c r="G246" s="15"/>
+      <c r="G246" s="8"/>
       <c r="H246" s="18"/>
       <c r="I246" s="18"/>
       <c r="J246" s="18"/>
@@ -10203,20 +10285,20 @@
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <f t="shared" si="11"/>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="13"/>
       <c r="D247" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11110101</v>
+        <v>11110011</v>
       </c>
       <c r="E247" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F5</v>
+        <v>F3</v>
       </c>
       <c r="F247" s="12"/>
-      <c r="G247" s="15"/>
+      <c r="G247" s="8"/>
       <c r="H247" s="18"/>
       <c r="I247" s="18"/>
       <c r="J247" s="18"/>
@@ -10229,17 +10311,17 @@
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <f t="shared" si="11"/>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="13"/>
       <c r="D248" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11110110</v>
+        <v>11110100</v>
       </c>
       <c r="E248" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F6</v>
+        <v>F4</v>
       </c>
       <c r="F248" s="12"/>
       <c r="G248" s="15"/>
@@ -10255,17 +10337,17 @@
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <f t="shared" si="11"/>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="13"/>
       <c r="D249" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11110111</v>
+        <v>11110101</v>
       </c>
       <c r="E249" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F7</v>
+        <v>F5</v>
       </c>
       <c r="F249" s="12"/>
       <c r="G249" s="15"/>
@@ -10281,127 +10363,79 @@
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <f t="shared" si="11"/>
-        <v>248</v>
-      </c>
-      <c r="B250" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C250" s="13">
-        <v>2</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B250" s="10"/>
+      <c r="C250" s="13"/>
       <c r="D250" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111000</v>
+        <v>11110110</v>
       </c>
       <c r="E250" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F8</v>
-      </c>
-      <c r="F250" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G250" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H250" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I250" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J250" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K250" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L250" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M250" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N250" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O250" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>F6</v>
+      </c>
+      <c r="F250" s="12"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="18"/>
+      <c r="I250" s="18"/>
+      <c r="J250" s="18"/>
+      <c r="K250" s="18"/>
+      <c r="L250" s="18"/>
+      <c r="M250" s="18"/>
+      <c r="N250" s="18"/>
+      <c r="O250" s="18"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <f t="shared" si="11"/>
-        <v>249</v>
-      </c>
-      <c r="B251" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C251" s="13">
-        <v>3</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B251" s="10"/>
+      <c r="C251" s="13"/>
       <c r="D251" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111001</v>
+        <v>11110111</v>
       </c>
       <c r="E251" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>F9</v>
-      </c>
-      <c r="F251" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G251" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H251" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I251" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J251" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K251" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L251" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M251" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N251" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O251" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>F7</v>
+      </c>
+      <c r="F251" s="12"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18"/>
+      <c r="J251" s="18"/>
+      <c r="K251" s="18"/>
+      <c r="L251" s="18"/>
+      <c r="M251" s="18"/>
+      <c r="N251" s="18"/>
+      <c r="O251" s="18"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>109</v>
+        <v>248</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="C252" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111010</v>
+        <v>11111000</v>
       </c>
       <c r="E252" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>FA</v>
+        <v>F8</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G252" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="G252" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="H252" s="18" t="s">
         <v>74</v>
@@ -10413,7 +10447,7 @@
         <v>74</v>
       </c>
       <c r="K252" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L252" s="18" t="s">
         <v>74</v>
@@ -10431,24 +10465,24 @@
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <f t="shared" si="11"/>
-        <v>251</v>
-      </c>
-      <c r="B253" s="10" t="s">
-        <v>111</v>
+        <v>249</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="C253" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D253" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111011</v>
+        <v>11111001</v>
       </c>
       <c r="E253" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>FB</v>
+        <v>F9</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="G253" s="8" t="s">
         <v>74</v>
@@ -10463,7 +10497,7 @@
         <v>74</v>
       </c>
       <c r="K253" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L253" s="18" t="s">
         <v>74</v>
@@ -10481,157 +10515,257 @@
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <f t="shared" si="11"/>
-        <v>252</v>
-      </c>
-      <c r="B254" s="25"/>
-      <c r="C254" s="13"/>
+        <v>250</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C254" s="13">
+        <v>3</v>
+      </c>
       <c r="D254" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111100</v>
+        <v>11111010</v>
       </c>
       <c r="E254" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>FC</v>
-      </c>
-      <c r="F254" s="12"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="18"/>
-      <c r="I254" s="18"/>
-      <c r="J254" s="18"/>
-      <c r="K254" s="18"/>
-      <c r="L254" s="18"/>
-      <c r="M254" s="18"/>
-      <c r="N254" s="18"/>
-      <c r="O254" s="18"/>
+        <v>FA</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G254" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H254" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I254" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J254" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K254" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L254" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M254" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N254" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O254" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <f t="shared" si="11"/>
-        <v>253</v>
-      </c>
-      <c r="B255" s="10"/>
-      <c r="C255" s="13"/>
+        <v>251</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C255" s="13">
+        <v>1</v>
+      </c>
       <c r="D255" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111101</v>
+        <v>11111011</v>
       </c>
       <c r="E255" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>FD</v>
-      </c>
-      <c r="F255" s="12"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="18"/>
-      <c r="I255" s="18"/>
-      <c r="J255" s="18"/>
-      <c r="K255" s="18"/>
-      <c r="L255" s="18"/>
-      <c r="M255" s="18"/>
-      <c r="N255" s="18"/>
-      <c r="O255" s="18"/>
+        <v>FB</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H255" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I255" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J255" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K255" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L255" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M255" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N255" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O255" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <f t="shared" si="11"/>
-        <v>254</v>
-      </c>
-      <c r="B256" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C256" s="13">
-        <v>1</v>
-      </c>
-      <c r="D256" s="27" t="str">
+        <v>252</v>
+      </c>
+      <c r="B256" s="25"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111110</v>
-      </c>
-      <c r="E256" s="27" t="str">
+        <v>11111100</v>
+      </c>
+      <c r="E256" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>FE</v>
-      </c>
-      <c r="F256" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G256" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H256" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I256" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J256" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K256" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L256" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M256" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N256" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O256" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>FC</v>
+      </c>
+      <c r="F256" s="12"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="18"/>
+      <c r="I256" s="18"/>
+      <c r="J256" s="18"/>
+      <c r="K256" s="18"/>
+      <c r="L256" s="18"/>
+      <c r="M256" s="18"/>
+      <c r="N256" s="18"/>
+      <c r="O256" s="18"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <f t="shared" si="11"/>
-        <v>255</v>
-      </c>
-      <c r="B257" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="13">
-        <v>1</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B257" s="10"/>
+      <c r="C257" s="13"/>
       <c r="D257" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>11111111</v>
+        <v>11111101</v>
       </c>
       <c r="E257" s="8" t="str">
         <f t="shared" si="10"/>
+        <v>FD</v>
+      </c>
+      <c r="F257" s="12"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="18"/>
+      <c r="I257" s="18"/>
+      <c r="J257" s="18"/>
+      <c r="K257" s="18"/>
+      <c r="L257" s="18"/>
+      <c r="M257" s="18"/>
+      <c r="N257" s="18"/>
+      <c r="O257" s="18"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
+        <f t="shared" si="11"/>
+        <v>254</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="13">
+        <v>1</v>
+      </c>
+      <c r="D258" s="27" t="str">
+        <f t="shared" si="9"/>
+        <v>11111110</v>
+      </c>
+      <c r="E258" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v>FE</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H258" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I258" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J258" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K258" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L258" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M258" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N258" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O258" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
+        <f t="shared" si="11"/>
+        <v>255</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="13">
+        <v>1</v>
+      </c>
+      <c r="D259" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>11111111</v>
+      </c>
+      <c r="E259" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>FF</v>
       </c>
-      <c r="F257" s="12" t="s">
+      <c r="F259" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G257" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="H257" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I257" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J257" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K257" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L257" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M257" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N257" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O257" s="18" t="s">
+      <c r="G259" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H259" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I259" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J259" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K259" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L259" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M259" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N259" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O259" s="18" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P257" xr:uid="{B2E86480-5B98-4470-AC29-B0B5708F558D}"/>
+  <autoFilter ref="A1:P259" xr:uid="{B2E86480-5B98-4470-AC29-B0B5708F558D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10639,10 +10773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C3FB96-BE49-4DC7-ADC4-F3606FE0BC2E}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10650,7 +10784,7 @@
     <col min="1" max="1" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="21.7109375" style="21" hidden="1"/>
+    <col min="4" max="16384" width="17.28515625" style="21" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10661,7 +10795,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10676,162 +10810,155 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="29"/>
+      <c r="A9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="33"/>
       <c r="C9" s="12" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="29"/>
+      <c r="A10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="C10" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="29"/>
+      <c r="A11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="A14" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="C14" s="12" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/RVM/src/rvm.xlsx
+++ b/Projects/RVM/src/rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Development\QuickBasic64\Projects\RVM\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499C71-09D3-4237-A5E1-15E1AE9AD514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A19E2-F3A1-4F8E-ADCE-E8EBF84C5498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,8 +1330,8 @@
   <dimension ref="A1:O259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3137,7 +3137,7 @@
         <v>75</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N38" s="18" t="s">
         <v>75</v>
@@ -3187,7 +3187,7 @@
         <v>75</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N39" s="18" t="s">
         <v>75</v>
@@ -3237,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N40" s="18" t="s">
         <v>75</v>
@@ -3287,7 +3287,7 @@
         <v>75</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N41" s="18" t="s">
         <v>75</v>
@@ -3337,7 +3337,7 @@
         <v>75</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N42" s="18" t="s">
         <v>75</v>
@@ -3387,7 +3387,7 @@
         <v>75</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N43" s="18" t="s">
         <v>75</v>
